--- a/data/raw/USDA_Organic_OperationSearchResults.2025.7.16.6_20 PM.csv.xlsx
+++ b/data/raw/USDA_Organic_OperationSearchResults.2025.7.16.6_20 PM.csv.xlsx
@@ -1,14 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\organic-beverage-gap-analysis\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E5375-CB9C-4626-B17C-18F0CFD67D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Operations" state="visible" r:id="rId1"/>
+    <sheet name="Operations" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA_1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1389">
   <si>
     <t>Program</t>
   </si>
@@ -4164,64 +4190,80 @@
   <si>
     <t>Certificates are available for certified operations if the Certifier has selected to use INTEGRITY Certificate Module.</t>
   </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Number of Columns</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>No Blank Headers</t>
+  </si>
+  <si>
+    <t>Duplicates</t>
+  </si>
+  <si>
+    <t>Blanks</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Type of product</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt formatCode="m/d/yyyy;@" numFmtId="196"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="197"/>
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="198"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="none"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="false"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="false"/>
-      <i val="true"/>
-      <u val="none"/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
-      <color rgb="050563C1"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4230,43 +4272,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4276,131 +4312,230 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" borderId="0" xfId="1" applyNumberFormat="false" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="198" fontId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="196" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="4" xfId="1" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="198" fontId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="1" xfId="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4510,68 +4645,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR99"/>
   <sheetViews>
-    <sheetView zoomScale="100" topLeftCell="AQ1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="BA15" sqref="BA15:BA15" pane="bottomLeft"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="false" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="false" customWidth="true" width="17.421875" hidden="false" outlineLevel="0"/>
-    <col min="2" max="4" bestFit="false" customWidth="true" style="6" width="27.7109375" hidden="false" outlineLevel="0"/>
-    <col min="5" max="5" bestFit="false" customWidth="true" style="10" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="6" max="7" bestFit="false" customWidth="true" style="6" width="27.7109375" hidden="false" outlineLevel="0"/>
-    <col min="8" max="8" bestFit="false" customWidth="true" style="6" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="9" max="9" bestFit="false" customWidth="true" style="6" width="16.7109375" hidden="false" outlineLevel="0"/>
-    <col min="10" max="10" bestFit="false" customWidth="true" style="6" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="11" max="11" bestFit="false" customWidth="true" style="6" width="16.7109375" hidden="false" outlineLevel="0"/>
-    <col min="12" max="12" bestFit="false" customWidth="true" style="20" width="39.7109375" hidden="false" outlineLevel="0"/>
-    <col min="13" max="13" bestFit="false" customWidth="true" style="31" width="24.7109375" hidden="false" outlineLevel="0"/>
-    <col min="14" max="14" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="15" max="15" bestFit="false" customWidth="true" style="20" width="24.7109375" hidden="false" outlineLevel="0"/>
-    <col min="16" max="16" bestFit="false" customWidth="true" style="6" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="17" max="17" bestFit="false" customWidth="true" style="6" width="16.7109375" hidden="false" outlineLevel="0"/>
-    <col min="18" max="18" bestFit="false" customWidth="true" style="6" width="39.7109375" hidden="false" outlineLevel="0"/>
-    <col min="19" max="19" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="20" max="20" bestFit="false" customWidth="true" style="20" width="24.7109375" hidden="false" outlineLevel="0"/>
-    <col min="21" max="21" bestFit="false" customWidth="true" style="6" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="22" max="22" bestFit="false" customWidth="true" style="6" width="16.7109375" hidden="false" outlineLevel="0"/>
-    <col min="23" max="23" bestFit="false" customWidth="true" style="6" width="39.7109375" hidden="false" outlineLevel="0"/>
-    <col min="24" max="24" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="25" max="25" bestFit="false" customWidth="true" style="20" width="24.7109375" hidden="false" outlineLevel="0"/>
-    <col min="26" max="26" bestFit="false" customWidth="true" style="6" width="22.7109375" hidden="false" outlineLevel="0"/>
-    <col min="27" max="27" bestFit="false" customWidth="true" style="6" width="16.7109375" hidden="false" outlineLevel="0"/>
-    <col min="28" max="28" bestFit="false" customWidth="true" style="6" width="39.7109375" hidden="false" outlineLevel="0"/>
-    <col min="29" max="29" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="30" max="30" bestFit="false" customWidth="true" style="20" width="24.7109375" hidden="false" outlineLevel="0"/>
-    <col min="31" max="31" bestFit="false" customWidth="true" style="6" width="30.7109375" hidden="false" outlineLevel="0"/>
-    <col min="32" max="32" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="33" max="34" bestFit="false" customWidth="true" style="6" width="17.7109375" hidden="false" outlineLevel="0"/>
-    <col min="35" max="35" bestFit="false" customWidth="true" style="6" width="18.7109375" hidden="false" outlineLevel="0"/>
-    <col min="36" max="36" bestFit="false" customWidth="true" style="6" width="13.7109375" hidden="false" outlineLevel="0"/>
-    <col min="37" max="37" bestFit="false" customWidth="true" style="6" width="30.7109375" hidden="false" outlineLevel="0"/>
-    <col min="38" max="38" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="39" max="42" bestFit="false" customWidth="true" style="6" width="17.7109375" hidden="false" outlineLevel="0"/>
-    <col min="43" max="43" bestFit="false" customWidth="true" style="6" width="18.7109375" hidden="false" outlineLevel="0"/>
-    <col min="44" max="45" bestFit="false" customWidth="true" style="6" width="13.7109375" hidden="false" outlineLevel="0"/>
-    <col min="46" max="49" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="50" max="50" bestFit="false" customWidth="true" style="6" width="13.7109375" hidden="false" outlineLevel="0"/>
-    <col min="51" max="52" bestFit="false" customWidth="true" style="6" width="20.7109375" hidden="false" outlineLevel="0"/>
-    <col min="53" max="53" bestFit="false" customWidth="true" style="6" width="25.7109375" hidden="false" outlineLevel="0"/>
-    <col min="54" max="54" bestFit="false" customWidth="true" style="6" width="11.7109375" hidden="false" outlineLevel="0"/>
-    <col min="55" max="67" bestFit="false" customWidth="true" style="6" width="16.00390625" hidden="false" outlineLevel="0"/>
-    <col min="68" max="68" bestFit="false" customWidth="true" style="20" width="16.00390625" hidden="false" outlineLevel="0"/>
-    <col min="69" max="69" bestFit="false" customWidth="true" style="32" width="27.7109375" hidden="false" outlineLevel="0"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="50.59765625" style="10"/>
+    <col min="6" max="6" width="50.59765625" style="6"/>
+    <col min="7" max="10" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="50.59765625" style="6"/>
+    <col min="12" max="12" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="31" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="21" max="24" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.73046875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="94.53125" style="6" customWidth="1"/>
+    <col min="32" max="33" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="41.3984375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="28.86328125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="43.265625" style="6" customWidth="1"/>
+    <col min="37" max="37" width="50.59765625" style="6"/>
+    <col min="38" max="67" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="0" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" s="29" customFormat="true" customHeight="true">
+    <row r="1" spans="1:70" s="29" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4780,7 @@
       <c r="AD1" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="42" t="s">
         <v>568</v>
       </c>
       <c r="AF1" s="18" t="s">
@@ -4781,7 +4899,7 @@
       </c>
       <c r="BR1" s="28"/>
     </row>
-    <row r="2" ht="15.75" s="3" customFormat="true" customHeight="true">
+    <row r="2" spans="1:70" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4858,7 +4976,7 @@
       <c r="AD2" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AE2" s="5"/>
+      <c r="AE2" s="43"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5" t="s">
@@ -4970,7 +5088,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" ht="92.25" s="30" customFormat="true" customHeight="true">
+    <row r="3" spans="1:70" s="30" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5057,7 +5175,7 @@
       <c r="AD3" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="44" t="s">
         <v>540</v>
       </c>
       <c r="AF3" s="4" t="s">
@@ -5140,8 +5258,9 @@
       <c r="BQ3" s="17" t="s">
         <v>1379</v>
       </c>
+      <c r="BR3" s="32"/>
     </row>
-    <row r="4" ht="15.75" customHeight="true">
+    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5175,10 +5294,10 @@
       <c r="K4" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L4" s="16" t="n">
+      <c r="L4" s="16">
         <v>43020</v>
       </c>
-      <c r="M4" s="16" t="n">
+      <c r="M4" s="16">
         <v>45871</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -5229,10 +5348,10 @@
       <c r="AC4" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD4" s="16" t="n">
+      <c r="AD4" s="16">
         <v>43020</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="45" t="s">
         <v>569</v>
       </c>
       <c r="AF4" s="6" t="s">
@@ -5317,7 +5436,7 @@
       <c r="BM4" s="25"/>
       <c r="BN4" s="25"/>
       <c r="BO4" s="25"/>
-      <c r="BP4" s="16" t="n">
+      <c r="BP4" s="16">
         <v>45740</v>
       </c>
       <c r="BQ4" s="27" t="str">
@@ -5325,7 +5444,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=32&amp;nopid=2230000836</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:70" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5359,10 +5478,10 @@
       <c r="K5" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L5" s="16" t="n">
+      <c r="L5" s="16">
         <v>38629</v>
       </c>
-      <c r="M5" s="16" t="n">
+      <c r="M5" s="16">
         <v>46105</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -5413,10 +5532,10 @@
       <c r="AC5" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD5" s="16" t="n">
+      <c r="AD5" s="16">
         <v>38629</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="45" t="s">
         <v>570</v>
       </c>
       <c r="AF5" s="6" t="s">
@@ -5503,7 +5622,7 @@
       <c r="BM5" s="25"/>
       <c r="BN5" s="25"/>
       <c r="BO5" s="25"/>
-      <c r="BP5" s="16" t="n">
+      <c r="BP5" s="16">
         <v>45853</v>
       </c>
       <c r="BQ5" s="27" t="str">
@@ -5511,7 +5630,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520031667</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:70" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5545,10 +5664,10 @@
       <c r="K6" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L6" s="16" t="n">
+      <c r="L6" s="16">
         <v>40070</v>
       </c>
-      <c r="M6" s="16" t="n">
+      <c r="M6" s="16">
         <v>46105</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -5599,10 +5718,10 @@
       <c r="AC6" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD6" s="16" t="n">
+      <c r="AD6" s="16">
         <v>40070</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AE6" s="45" t="s">
         <v>571</v>
       </c>
       <c r="AF6" s="6" t="s">
@@ -5689,7 +5808,7 @@
       <c r="BM6" s="25"/>
       <c r="BN6" s="25"/>
       <c r="BO6" s="25"/>
-      <c r="BP6" s="16" t="n">
+      <c r="BP6" s="16">
         <v>45853</v>
       </c>
       <c r="BQ6" s="27" t="str">
@@ -5697,7 +5816,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520039207</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5731,10 +5850,10 @@
       <c r="K7" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L7" s="16" t="n">
+      <c r="L7" s="16">
         <v>38128</v>
       </c>
-      <c r="M7" s="16" t="n">
+      <c r="M7" s="16">
         <v>46002</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -5785,7 +5904,7 @@
       <c r="AC7" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD7" s="16" t="n">
+      <c r="AD7" s="16">
         <v>38128</v>
       </c>
       <c r="AE7" s="6" t="s">
@@ -5875,7 +5994,7 @@
       <c r="BM7" s="25"/>
       <c r="BN7" s="25"/>
       <c r="BO7" s="25"/>
-      <c r="BP7" s="16" t="n">
+      <c r="BP7" s="16">
         <v>45853</v>
       </c>
       <c r="BQ7" s="27" t="str">
@@ -5883,7 +6002,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030433</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5917,10 +6036,10 @@
       <c r="K8" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L8" s="16" t="n">
+      <c r="L8" s="16">
         <v>38652</v>
       </c>
-      <c r="M8" s="16" t="n">
+      <c r="M8" s="16">
         <v>45855</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -5971,7 +6090,7 @@
       <c r="AC8" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD8" s="16" t="n">
+      <c r="AD8" s="16">
         <v>38652</v>
       </c>
       <c r="AE8" s="6" t="s">
@@ -6061,7 +6180,7 @@
       <c r="BM8" s="25"/>
       <c r="BN8" s="25"/>
       <c r="BO8" s="25"/>
-      <c r="BP8" s="16" t="n">
+      <c r="BP8" s="16">
         <v>45853</v>
       </c>
       <c r="BQ8" s="27" t="str">
@@ -6069,7 +6188,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030119</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6103,10 +6222,10 @@
       <c r="K9" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L9" s="16" t="n">
+      <c r="L9" s="16">
         <v>37375</v>
       </c>
-      <c r="M9" s="16" t="n">
+      <c r="M9" s="16">
         <v>45953</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -6157,7 +6276,7 @@
       <c r="AC9" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD9" s="16" t="n">
+      <c r="AD9" s="16">
         <v>37375</v>
       </c>
       <c r="AE9" s="6" t="s">
@@ -6247,7 +6366,7 @@
       <c r="BM9" s="25"/>
       <c r="BN9" s="25"/>
       <c r="BO9" s="25"/>
-      <c r="BP9" s="16" t="n">
+      <c r="BP9" s="16">
         <v>45853</v>
       </c>
       <c r="BQ9" s="27" t="str">
@@ -6255,7 +6374,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030582</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6289,10 +6408,10 @@
       <c r="K10" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L10" s="16" t="n">
+      <c r="L10" s="16">
         <v>37375</v>
       </c>
-      <c r="M10" s="16" t="n">
+      <c r="M10" s="16">
         <v>45839</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -6343,7 +6462,7 @@
       <c r="AC10" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD10" s="16" t="n">
+      <c r="AD10" s="16">
         <v>37375</v>
       </c>
       <c r="AE10" s="6" t="s">
@@ -6433,7 +6552,7 @@
       <c r="BM10" s="25"/>
       <c r="BN10" s="25"/>
       <c r="BO10" s="25"/>
-      <c r="BP10" s="16" t="n">
+      <c r="BP10" s="16">
         <v>45853</v>
       </c>
       <c r="BQ10" s="27" t="str">
@@ -6441,7 +6560,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030101</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6475,10 +6594,10 @@
       <c r="K11" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L11" s="16" t="n">
+      <c r="L11" s="16">
         <v>41305</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" s="16">
         <v>46023</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -6529,7 +6648,7 @@
       <c r="AC11" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD11" s="16" t="n">
+      <c r="AD11" s="16">
         <v>41305</v>
       </c>
       <c r="AE11" s="6" t="s">
@@ -6617,7 +6736,7 @@
       <c r="BM11" s="25"/>
       <c r="BN11" s="25"/>
       <c r="BO11" s="25"/>
-      <c r="BP11" s="16" t="n">
+      <c r="BP11" s="16">
         <v>45852</v>
       </c>
       <c r="BQ11" s="27" t="str">
@@ -6625,7 +6744,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561001784</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6659,10 +6778,10 @@
       <c r="K12" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L12" s="16" t="n">
+      <c r="L12" s="16">
         <v>44490</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" s="16">
         <v>46023</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -6713,7 +6832,7 @@
       <c r="AC12" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD12" s="16" t="n">
+      <c r="AD12" s="16">
         <v>44490</v>
       </c>
       <c r="AE12" s="6" t="s">
@@ -6803,7 +6922,7 @@
       <c r="BM12" s="25"/>
       <c r="BN12" s="25"/>
       <c r="BO12" s="25"/>
-      <c r="BP12" s="16" t="n">
+      <c r="BP12" s="16">
         <v>45805</v>
       </c>
       <c r="BQ12" s="27" t="str">
@@ -6811,7 +6930,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150017542</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -6845,10 +6964,10 @@
       <c r="K13" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L13" s="16" t="n">
+      <c r="L13" s="16">
         <v>45022</v>
       </c>
-      <c r="M13" s="16" t="n">
+      <c r="M13" s="16">
         <v>46118</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -6899,7 +7018,7 @@
       <c r="AC13" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD13" s="16" t="n">
+      <c r="AD13" s="16">
         <v>45022</v>
       </c>
       <c r="AE13" s="6" t="s">
@@ -6987,7 +7106,7 @@
       <c r="BM13" s="25"/>
       <c r="BN13" s="25"/>
       <c r="BO13" s="25"/>
-      <c r="BP13" s="16" t="n">
+      <c r="BP13" s="16">
         <v>45763</v>
       </c>
       <c r="BQ13" s="27" t="str">
@@ -6995,7 +7114,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=63&amp;nopid=6220007307</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7029,10 +7148,10 @@
       <c r="K14" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L14" s="16" t="n">
+      <c r="L14" s="16">
         <v>40290</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" s="16">
         <v>46113</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -7083,7 +7202,7 @@
       <c r="AC14" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD14" s="16" t="n">
+      <c r="AD14" s="16">
         <v>40290</v>
       </c>
       <c r="AE14" s="6" t="s">
@@ -7175,7 +7294,7 @@
         <v>1363</v>
       </c>
       <c r="BO14" s="25"/>
-      <c r="BP14" s="16" t="n">
+      <c r="BP14" s="16">
         <v>45841</v>
       </c>
       <c r="BQ14" s="27" t="str">
@@ -7183,7 +7302,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150000183</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -7217,10 +7336,10 @@
       <c r="K15" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L15" s="16" t="n">
+      <c r="L15" s="16">
         <v>45187</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" s="16">
         <v>45930</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -7271,7 +7390,7 @@
       <c r="AC15" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD15" s="16" t="n">
+      <c r="AD15" s="16">
         <v>45187</v>
       </c>
       <c r="AE15" s="6" t="s">
@@ -7359,7 +7478,7 @@
       <c r="BM15" s="25"/>
       <c r="BN15" s="25"/>
       <c r="BO15" s="25"/>
-      <c r="BP15" s="16" t="n">
+      <c r="BP15" s="16">
         <v>45604</v>
       </c>
       <c r="BQ15" s="27" t="str">
@@ -7367,7 +7486,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203789900</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -7401,10 +7520,10 @@
       <c r="K16" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L16" s="16" t="n">
+      <c r="L16" s="16">
         <v>44180</v>
       </c>
-      <c r="M16" s="16" t="n">
+      <c r="M16" s="16">
         <v>45689</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -7455,7 +7574,7 @@
       <c r="AC16" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD16" s="16" t="n">
+      <c r="AD16" s="16">
         <v>44180</v>
       </c>
       <c r="AE16" s="6" t="s">
@@ -7527,7 +7646,7 @@
       <c r="BA16" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB16" s="23" t="n">
+      <c r="BB16" s="23">
         <v>0</v>
       </c>
       <c r="BC16" s="25"/>
@@ -7545,7 +7664,7 @@
       <c r="BM16" s="25"/>
       <c r="BN16" s="25"/>
       <c r="BO16" s="25"/>
-      <c r="BP16" s="16" t="n">
+      <c r="BP16" s="16">
         <v>45770</v>
       </c>
       <c r="BQ16" s="27" t="str">
@@ -7553,7 +7672,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950012335</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -7587,10 +7706,10 @@
       <c r="K17" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L17" s="16" t="n">
+      <c r="L17" s="16">
         <v>44406</v>
       </c>
-      <c r="M17" s="16" t="n">
+      <c r="M17" s="16">
         <v>46023</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -7641,7 +7760,7 @@
       <c r="AC17" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD17" s="16" t="n">
+      <c r="AD17" s="16">
         <v>44406</v>
       </c>
       <c r="AE17" s="6" t="s">
@@ -7731,7 +7850,7 @@
       <c r="BM17" s="25"/>
       <c r="BN17" s="25"/>
       <c r="BO17" s="25"/>
-      <c r="BP17" s="16" t="n">
+      <c r="BP17" s="16">
         <v>45838</v>
       </c>
       <c r="BQ17" s="27" t="str">
@@ -7739,7 +7858,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561006982</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -7773,10 +7892,10 @@
       <c r="K18" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L18" s="16" t="n">
+      <c r="L18" s="16">
         <v>45399</v>
       </c>
-      <c r="M18" s="16" t="n">
+      <c r="M18" s="16">
         <v>46142</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -7827,7 +7946,7 @@
       <c r="AC18" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD18" s="16" t="n">
+      <c r="AD18" s="16">
         <v>45399</v>
       </c>
       <c r="AE18" s="6" t="s">
@@ -7917,7 +8036,7 @@
       <c r="BM18" s="25"/>
       <c r="BN18" s="25"/>
       <c r="BO18" s="25"/>
-      <c r="BP18" s="16" t="n">
+      <c r="BP18" s="16">
         <v>45821</v>
       </c>
       <c r="BQ18" s="27" t="str">
@@ -7925,7 +8044,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=77&amp;nopid=3510926062</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7959,10 +8078,10 @@
       <c r="K19" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L19" s="16" t="n">
+      <c r="L19" s="16">
         <v>41465</v>
       </c>
-      <c r="M19" s="16" t="n">
+      <c r="M19" s="16">
         <v>46113</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -8013,7 +8132,7 @@
       <c r="AC19" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD19" s="16" t="n">
+      <c r="AD19" s="16">
         <v>41465</v>
       </c>
       <c r="AE19" s="6" t="s">
@@ -8101,7 +8220,7 @@
       <c r="BM19" s="25"/>
       <c r="BN19" s="25"/>
       <c r="BO19" s="25"/>
-      <c r="BP19" s="16" t="n">
+      <c r="BP19" s="16">
         <v>45805</v>
       </c>
       <c r="BQ19" s="27" t="str">
@@ -8109,7 +8228,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150000334</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -8143,10 +8262,10 @@
       <c r="K20" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L20" s="16" t="n">
+      <c r="L20" s="16">
         <v>38798</v>
       </c>
-      <c r="M20" s="16" t="n">
+      <c r="M20" s="16">
         <v>46023</v>
       </c>
       <c r="N20" s="6" t="s">
@@ -8197,7 +8316,7 @@
       <c r="AC20" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD20" s="16" t="n">
+      <c r="AD20" s="16">
         <v>38798</v>
       </c>
       <c r="AE20" s="6" t="s">
@@ -8291,7 +8410,7 @@
       <c r="BM20" s="25"/>
       <c r="BN20" s="25"/>
       <c r="BO20" s="25"/>
-      <c r="BP20" s="16" t="n">
+      <c r="BP20" s="16">
         <v>45813</v>
       </c>
       <c r="BQ20" s="27" t="str">
@@ -8299,7 +8418,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561002330</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -8333,16 +8452,16 @@
       <c r="K21" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L21" s="16" t="n">
+      <c r="L21" s="16">
         <v>44720</v>
       </c>
-      <c r="M21" s="16" t="n">
+      <c r="M21" s="16">
         <v>46023</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="O21" s="16" t="n">
+      <c r="O21" s="16">
         <v>45667</v>
       </c>
       <c r="P21" s="6" t="s">
@@ -8387,7 +8506,7 @@
       <c r="AC21" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD21" s="16" t="n">
+      <c r="AD21" s="16">
         <v>44720</v>
       </c>
       <c r="AE21" s="6" t="s">
@@ -8475,7 +8594,7 @@
       <c r="BM21" s="25"/>
       <c r="BN21" s="25"/>
       <c r="BO21" s="25"/>
-      <c r="BP21" s="16" t="n">
+      <c r="BP21" s="16">
         <v>45820</v>
       </c>
       <c r="BQ21" s="27" t="str">
@@ -8483,7 +8602,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150019013</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -8517,16 +8636,16 @@
       <c r="K22" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L22" s="16" t="n">
+      <c r="L22" s="16">
         <v>37375</v>
       </c>
-      <c r="M22" s="16" t="n">
+      <c r="M22" s="16">
         <v>46113</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O22" s="16" t="n">
+      <c r="O22" s="16">
         <v>37923</v>
       </c>
       <c r="P22" s="6" t="s">
@@ -8541,7 +8660,7 @@
       <c r="S22" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="T22" s="16" t="n">
+      <c r="T22" s="16">
         <v>45119</v>
       </c>
       <c r="U22" s="6" t="s">
@@ -8571,7 +8690,7 @@
       <c r="AC22" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD22" s="16" t="n">
+      <c r="AD22" s="16">
         <v>37375</v>
       </c>
       <c r="AE22" s="6" t="s">
@@ -8643,7 +8762,7 @@
       <c r="BA22" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB22" s="23" t="n">
+      <c r="BB22" s="23">
         <v>16</v>
       </c>
       <c r="BC22" s="25" t="s">
@@ -8671,7 +8790,7 @@
         <v>1363</v>
       </c>
       <c r="BO22" s="25"/>
-      <c r="BP22" s="16" t="n">
+      <c r="BP22" s="16">
         <v>45840</v>
       </c>
       <c r="BQ22" s="27" t="str">
@@ -8679,7 +8798,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150001357</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -8713,10 +8832,10 @@
       <c r="K23" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L23" s="16" t="n">
+      <c r="L23" s="16">
         <v>45737</v>
       </c>
-      <c r="M23" s="16" t="n">
+      <c r="M23" s="16">
         <v>46082</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -8767,7 +8886,7 @@
       <c r="AC23" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD23" s="16" t="n">
+      <c r="AD23" s="16">
         <v>45737</v>
       </c>
       <c r="AE23" s="6" t="s">
@@ -8855,7 +8974,7 @@
       <c r="BM23" s="25"/>
       <c r="BN23" s="25"/>
       <c r="BO23" s="25"/>
-      <c r="BP23" s="16" t="n">
+      <c r="BP23" s="16">
         <v>45853</v>
       </c>
       <c r="BQ23" s="27" t="str">
@@ -8863,7 +8982,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=82&amp;nopid=2780003978</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -8897,10 +9016,10 @@
       <c r="K24" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L24" s="16" t="n">
+      <c r="L24" s="16">
         <v>43633</v>
       </c>
-      <c r="M24" s="16" t="n">
+      <c r="M24" s="16">
         <v>45825</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -8951,7 +9070,7 @@
       <c r="AC24" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD24" s="16" t="n">
+      <c r="AD24" s="16">
         <v>43633</v>
       </c>
       <c r="AE24" s="6" t="s">
@@ -9039,7 +9158,7 @@
       <c r="BM24" s="25"/>
       <c r="BN24" s="25"/>
       <c r="BO24" s="25"/>
-      <c r="BP24" s="16" t="n">
+      <c r="BP24" s="16">
         <v>45588</v>
       </c>
       <c r="BQ24" s="27" t="str">
@@ -9047,7 +9166,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=21&amp;nopid=1780865779</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -9081,10 +9200,10 @@
       <c r="K25" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L25" s="16" t="n">
+      <c r="L25" s="16">
         <v>43543</v>
       </c>
-      <c r="M25" s="16" t="n">
+      <c r="M25" s="16">
         <v>45812</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -9135,7 +9254,7 @@
       <c r="AC25" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD25" s="16" t="n">
+      <c r="AD25" s="16">
         <v>43543</v>
       </c>
       <c r="AE25" s="6" t="s">
@@ -9225,7 +9344,7 @@
       <c r="BM25" s="25"/>
       <c r="BN25" s="25"/>
       <c r="BO25" s="25"/>
-      <c r="BP25" s="16" t="n">
+      <c r="BP25" s="16">
         <v>45789</v>
       </c>
       <c r="BQ25" s="27" t="str">
@@ -9233,7 +9352,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=32&amp;nopid=2230006491</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -9267,10 +9386,10 @@
       <c r="K26" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L26" s="16" t="n">
+      <c r="L26" s="16">
         <v>44217</v>
       </c>
-      <c r="M26" s="16" t="n">
+      <c r="M26" s="16">
         <v>45870</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -9321,7 +9440,7 @@
       <c r="AC26" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD26" s="16" t="n">
+      <c r="AD26" s="16">
         <v>44217</v>
       </c>
       <c r="AE26" s="6" t="s">
@@ -9393,7 +9512,7 @@
       <c r="BA26" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="BB26" s="23" t="n">
+      <c r="BB26" s="23">
         <v>0</v>
       </c>
       <c r="BC26" s="25"/>
@@ -9409,7 +9528,7 @@
       <c r="BM26" s="25"/>
       <c r="BN26" s="25"/>
       <c r="BO26" s="25"/>
-      <c r="BP26" s="16" t="n">
+      <c r="BP26" s="16">
         <v>45810</v>
       </c>
       <c r="BQ26" s="27" t="str">
@@ -9417,7 +9536,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=24&amp;nopid=7880235520</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -9451,10 +9570,10 @@
       <c r="K27" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L27" s="16" t="n">
+      <c r="L27" s="16">
         <v>45803</v>
       </c>
-      <c r="M27" s="16" t="n">
+      <c r="M27" s="16">
         <v>45976</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -9505,7 +9624,7 @@
       <c r="AC27" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD27" s="16" t="n">
+      <c r="AD27" s="16">
         <v>45803</v>
       </c>
       <c r="AE27" s="6" t="s">
@@ -9593,7 +9712,7 @@
       <c r="BM27" s="25"/>
       <c r="BN27" s="25"/>
       <c r="BO27" s="25"/>
-      <c r="BP27" s="16" t="n">
+      <c r="BP27" s="16">
         <v>45803</v>
       </c>
       <c r="BQ27" s="27" t="str">
@@ -9601,7 +9720,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=32&amp;nopid=2230009891</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -9635,10 +9754,10 @@
       <c r="K28" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L28" s="16" t="n">
+      <c r="L28" s="16">
         <v>43353</v>
       </c>
-      <c r="M28" s="16" t="n">
+      <c r="M28" s="16">
         <v>45748</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -9689,7 +9808,7 @@
       <c r="AC28" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD28" s="16" t="n">
+      <c r="AD28" s="16">
         <v>43353</v>
       </c>
       <c r="AE28" s="6" t="s">
@@ -9761,7 +9880,7 @@
       <c r="BA28" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB28" s="23" t="n">
+      <c r="BB28" s="23">
         <v>0</v>
       </c>
       <c r="BC28" s="25"/>
@@ -9777,7 +9896,7 @@
       <c r="BM28" s="25"/>
       <c r="BN28" s="25"/>
       <c r="BO28" s="25"/>
-      <c r="BP28" s="16" t="n">
+      <c r="BP28" s="16">
         <v>45642</v>
       </c>
       <c r="BQ28" s="27" t="str">
@@ -9785,7 +9904,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950011011</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -9819,10 +9938,10 @@
       <c r="K29" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L29" s="16" t="n">
+      <c r="L29" s="16">
         <v>44450</v>
       </c>
-      <c r="M29" s="16" t="n">
+      <c r="M29" s="16">
         <v>45911</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -9873,7 +9992,7 @@
       <c r="AC29" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD29" s="16" t="n">
+      <c r="AD29" s="16">
         <v>44450</v>
       </c>
       <c r="AE29" s="6" t="s">
@@ -9967,7 +10086,7 @@
         <v>1363</v>
       </c>
       <c r="BO29" s="25"/>
-      <c r="BP29" s="16" t="n">
+      <c r="BP29" s="16">
         <v>45827</v>
       </c>
       <c r="BQ29" s="27" t="str">
@@ -9975,7 +10094,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=63&amp;nopid=6220008735</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -10009,10 +10128,10 @@
       <c r="K30" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L30" s="16" t="n">
+      <c r="L30" s="16">
         <v>39216</v>
       </c>
-      <c r="M30" s="16" t="n">
+      <c r="M30" s="16">
         <v>46113</v>
       </c>
       <c r="N30" s="6" t="s">
@@ -10063,7 +10182,7 @@
       <c r="AC30" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD30" s="16" t="n">
+      <c r="AD30" s="16">
         <v>39216</v>
       </c>
       <c r="AE30" s="6" t="s">
@@ -10151,7 +10270,7 @@
       <c r="BM30" s="25"/>
       <c r="BN30" s="25"/>
       <c r="BO30" s="25"/>
-      <c r="BP30" s="16" t="n">
+      <c r="BP30" s="16">
         <v>45854</v>
       </c>
       <c r="BQ30" s="27" t="str">
@@ -10159,7 +10278,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=72&amp;nopid=5870000809</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -10193,16 +10312,16 @@
       <c r="K31" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L31" s="16" t="n">
+      <c r="L31" s="16">
         <v>45755</v>
       </c>
-      <c r="M31" s="16" t="n">
+      <c r="M31" s="16">
         <v>46105</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O31" s="16" t="n">
+      <c r="O31" s="16">
         <v>45755</v>
       </c>
       <c r="P31" s="6" t="s">
@@ -10247,7 +10366,7 @@
       <c r="AC31" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD31" s="16" t="n">
+      <c r="AD31" s="16">
         <v>45755</v>
       </c>
       <c r="AE31" s="6" t="s">
@@ -10319,7 +10438,7 @@
       <c r="BA31" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB31" s="23" t="n">
+      <c r="BB31" s="23">
         <v>6</v>
       </c>
       <c r="BC31" s="25"/>
@@ -10335,7 +10454,7 @@
       <c r="BM31" s="25"/>
       <c r="BN31" s="25"/>
       <c r="BO31" s="25"/>
-      <c r="BP31" s="16" t="n">
+      <c r="BP31" s="16">
         <v>45756</v>
       </c>
       <c r="BQ31" s="27" t="str">
@@ -10343,7 +10462,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=32&amp;nopid=2230008745</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -10377,10 +10496,10 @@
       <c r="K32" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L32" s="16" t="n">
+      <c r="L32" s="16">
         <v>43161</v>
       </c>
-      <c r="M32" s="16" t="n">
+      <c r="M32" s="16">
         <v>46081</v>
       </c>
       <c r="N32" s="6" t="s">
@@ -10431,7 +10550,7 @@
       <c r="AC32" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD32" s="16" t="n">
+      <c r="AD32" s="16">
         <v>43161</v>
       </c>
       <c r="AE32" s="6" t="s">
@@ -10519,7 +10638,7 @@
       <c r="BM32" s="25"/>
       <c r="BN32" s="25"/>
       <c r="BO32" s="25"/>
-      <c r="BP32" s="16" t="n">
+      <c r="BP32" s="16">
         <v>45807</v>
       </c>
       <c r="BQ32" s="27" t="str">
@@ -10527,7 +10646,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1202779000</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -10561,10 +10680,10 @@
       <c r="K33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L33" s="16" t="n">
+      <c r="L33" s="16">
         <v>45513</v>
       </c>
-      <c r="M33" s="16" t="n">
+      <c r="M33" s="16">
         <v>46234</v>
       </c>
       <c r="N33" s="6" t="s">
@@ -10600,7 +10719,7 @@
       <c r="X33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="Y33" s="16" t="n">
+      <c r="Y33" s="16">
         <v>45513</v>
       </c>
       <c r="Z33" s="6" t="s">
@@ -10615,7 +10734,7 @@
       <c r="AC33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD33" s="16" t="n">
+      <c r="AD33" s="16">
         <v>45513</v>
       </c>
       <c r="AE33" s="6" t="s">
@@ -10687,7 +10806,7 @@
       <c r="BA33" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB33" s="23" t="n">
+      <c r="BB33" s="23">
         <v>2504</v>
       </c>
       <c r="BC33" s="25"/>
@@ -10703,7 +10822,7 @@
       <c r="BM33" s="25"/>
       <c r="BN33" s="25"/>
       <c r="BO33" s="25"/>
-      <c r="BP33" s="16" t="n">
+      <c r="BP33" s="16">
         <v>45726</v>
       </c>
       <c r="BQ33" s="27" t="str">
@@ -10711,7 +10830,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203853100</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -10745,10 +10864,10 @@
       <c r="K34" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L34" s="16" t="n">
+      <c r="L34" s="16">
         <v>45369</v>
       </c>
-      <c r="M34" s="16" t="n">
+      <c r="M34" s="16">
         <v>45566</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -10799,7 +10918,7 @@
       <c r="AC34" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD34" s="16" t="n">
+      <c r="AD34" s="16">
         <v>45369</v>
       </c>
       <c r="AE34" s="6" t="s">
@@ -10887,7 +11006,7 @@
       <c r="BM34" s="25"/>
       <c r="BN34" s="25"/>
       <c r="BO34" s="25"/>
-      <c r="BP34" s="16" t="n">
+      <c r="BP34" s="16">
         <v>45853</v>
       </c>
       <c r="BQ34" s="27" t="str">
@@ -10895,7 +11014,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=19&amp;nopid=6350000636</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -10929,10 +11048,10 @@
       <c r="K35" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L35" s="16" t="n">
+      <c r="L35" s="16">
         <v>39163</v>
       </c>
-      <c r="M35" s="16" t="n">
+      <c r="M35" s="16">
         <v>46103</v>
       </c>
       <c r="N35" s="6" t="s">
@@ -10983,7 +11102,7 @@
       <c r="AC35" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD35" s="16" t="n">
+      <c r="AD35" s="16">
         <v>39163</v>
       </c>
       <c r="AE35" s="6" t="s">
@@ -11077,7 +11196,7 @@
         <v>1363</v>
       </c>
       <c r="BO35" s="25"/>
-      <c r="BP35" s="16" t="n">
+      <c r="BP35" s="16">
         <v>45798</v>
       </c>
       <c r="BQ35" s="27" t="str">
@@ -11085,7 +11204,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=69&amp;nopid=1560060000</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -11119,10 +11238,10 @@
       <c r="K36" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L36" s="16" t="n">
+      <c r="L36" s="16">
         <v>41887</v>
       </c>
-      <c r="M36" s="16" t="n">
+      <c r="M36" s="16">
         <v>45931</v>
       </c>
       <c r="N36" s="6" t="s">
@@ -11173,7 +11292,7 @@
       <c r="AC36" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD36" s="16" t="n">
+      <c r="AD36" s="16">
         <v>41887</v>
       </c>
       <c r="AE36" s="6" t="s">
@@ -11261,7 +11380,7 @@
       <c r="BM36" s="25"/>
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
-      <c r="BP36" s="16" t="n">
+      <c r="BP36" s="16">
         <v>45839</v>
       </c>
       <c r="BQ36" s="27" t="str">
@@ -11269,7 +11388,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=8&amp;nopid=2201408900</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -11303,10 +11422,10 @@
       <c r="K37" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L37" s="16" t="n">
+      <c r="L37" s="16">
         <v>43125</v>
       </c>
-      <c r="M37" s="16" t="n">
+      <c r="M37" s="16">
         <v>46023</v>
       </c>
       <c r="N37" s="6" t="s">
@@ -11357,7 +11476,7 @@
       <c r="AC37" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD37" s="16" t="n">
+      <c r="AD37" s="16">
         <v>43125</v>
       </c>
       <c r="AE37" s="6" t="s">
@@ -11445,7 +11564,7 @@
       <c r="BM37" s="25"/>
       <c r="BN37" s="25"/>
       <c r="BO37" s="25"/>
-      <c r="BP37" s="16" t="n">
+      <c r="BP37" s="16">
         <v>45814</v>
       </c>
       <c r="BQ37" s="27" t="str">
@@ -11453,7 +11572,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561005070</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -11487,10 +11606,10 @@
       <c r="K38" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L38" s="16" t="n">
+      <c r="L38" s="16">
         <v>45779</v>
       </c>
-      <c r="M38" s="16" t="n">
+      <c r="M38" s="16">
         <v>46142</v>
       </c>
       <c r="N38" s="6" t="s">
@@ -11541,7 +11660,7 @@
       <c r="AC38" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD38" s="16" t="n">
+      <c r="AD38" s="16">
         <v>45779</v>
       </c>
       <c r="AE38" s="6" t="s">
@@ -11629,7 +11748,7 @@
       <c r="BM38" s="25"/>
       <c r="BN38" s="25"/>
       <c r="BO38" s="25"/>
-      <c r="BP38" s="16" t="n">
+      <c r="BP38" s="16">
         <v>45779</v>
       </c>
       <c r="BQ38" s="27" t="str">
@@ -11637,7 +11756,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203916300</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -11671,10 +11790,10 @@
       <c r="K39" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L39" s="16" t="n">
+      <c r="L39" s="16">
         <v>43494</v>
       </c>
-      <c r="M39" s="16" t="n">
+      <c r="M39" s="16">
         <v>45748</v>
       </c>
       <c r="N39" s="6" t="s">
@@ -11725,7 +11844,7 @@
       <c r="AC39" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD39" s="16" t="n">
+      <c r="AD39" s="16">
         <v>43494</v>
       </c>
       <c r="AE39" s="6" t="s">
@@ -11797,7 +11916,7 @@
       <c r="BA39" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB39" s="23" t="n">
+      <c r="BB39" s="23">
         <v>0</v>
       </c>
       <c r="BC39" s="25"/>
@@ -11815,7 +11934,7 @@
       <c r="BM39" s="25"/>
       <c r="BN39" s="25"/>
       <c r="BO39" s="25"/>
-      <c r="BP39" s="16" t="n">
+      <c r="BP39" s="16">
         <v>45530</v>
       </c>
       <c r="BQ39" s="27" t="str">
@@ -11823,7 +11942,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950010946</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -11857,10 +11976,10 @@
       <c r="K40" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L40" s="16" t="n">
+      <c r="L40" s="16">
         <v>40500</v>
       </c>
-      <c r="M40" s="16" t="n">
+      <c r="M40" s="16">
         <v>46023</v>
       </c>
       <c r="N40" s="6" t="s">
@@ -11911,7 +12030,7 @@
       <c r="AC40" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD40" s="16" t="n">
+      <c r="AD40" s="16">
         <v>40500</v>
       </c>
       <c r="AE40" s="6" t="s">
@@ -11999,7 +12118,7 @@
       <c r="BM40" s="25"/>
       <c r="BN40" s="25"/>
       <c r="BO40" s="25"/>
-      <c r="BP40" s="16" t="n">
+      <c r="BP40" s="16">
         <v>45799</v>
       </c>
       <c r="BQ40" s="27" t="str">
@@ -12007,7 +12126,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561002483</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -12041,10 +12160,10 @@
       <c r="K41" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L41" s="16" t="n">
+      <c r="L41" s="16">
         <v>37375</v>
       </c>
-      <c r="M41" s="16" t="n">
+      <c r="M41" s="16">
         <v>46023</v>
       </c>
       <c r="N41" s="6" t="s">
@@ -12095,7 +12214,7 @@
       <c r="AC41" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD41" s="16" t="n">
+      <c r="AD41" s="16">
         <v>37375</v>
       </c>
       <c r="AE41" s="6" t="s">
@@ -12185,7 +12304,7 @@
       <c r="BM41" s="25"/>
       <c r="BN41" s="25"/>
       <c r="BO41" s="25"/>
-      <c r="BP41" s="16" t="n">
+      <c r="BP41" s="16">
         <v>45842</v>
       </c>
       <c r="BQ41" s="27" t="str">
@@ -12193,7 +12312,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150001929</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -12227,10 +12346,10 @@
       <c r="K42" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L42" s="16" t="n">
+      <c r="L42" s="16">
         <v>37375</v>
       </c>
-      <c r="M42" s="16" t="n">
+      <c r="M42" s="16">
         <v>45772</v>
       </c>
       <c r="N42" s="6" t="s">
@@ -12281,7 +12400,7 @@
       <c r="AC42" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD42" s="16" t="n">
+      <c r="AD42" s="16">
         <v>37375</v>
       </c>
       <c r="AE42" s="6" t="s">
@@ -12371,7 +12490,7 @@
       <c r="BM42" s="25"/>
       <c r="BN42" s="25"/>
       <c r="BO42" s="25"/>
-      <c r="BP42" s="16" t="n">
+      <c r="BP42" s="16">
         <v>45853</v>
       </c>
       <c r="BQ42" s="27" t="str">
@@ -12379,7 +12498,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030742</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -12413,16 +12532,16 @@
       <c r="K43" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L43" s="16" t="n">
+      <c r="L43" s="16">
         <v>45413</v>
       </c>
-      <c r="M43" s="16" t="n">
+      <c r="M43" s="16">
         <v>46023</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O43" s="16" t="n">
+      <c r="O43" s="16">
         <v>45413</v>
       </c>
       <c r="P43" s="6" t="s">
@@ -12452,7 +12571,7 @@
       <c r="X43" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="Y43" s="16" t="n">
+      <c r="Y43" s="16">
         <v>45413</v>
       </c>
       <c r="Z43" s="6" t="s">
@@ -12467,7 +12586,7 @@
       <c r="AC43" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD43" s="16" t="n">
+      <c r="AD43" s="16">
         <v>45413</v>
       </c>
       <c r="AE43" s="6" t="s">
@@ -12539,7 +12658,7 @@
       <c r="BA43" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB43" s="23" t="n">
+      <c r="BB43" s="23">
         <v>101</v>
       </c>
       <c r="BC43" s="25"/>
@@ -12555,7 +12674,7 @@
       <c r="BM43" s="25"/>
       <c r="BN43" s="25"/>
       <c r="BO43" s="25"/>
-      <c r="BP43" s="16" t="n">
+      <c r="BP43" s="16">
         <v>45805</v>
       </c>
       <c r="BQ43" s="27" t="str">
@@ -12563,7 +12682,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150024344</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -12597,10 +12716,10 @@
       <c r="K44" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L44" s="16" t="n">
+      <c r="L44" s="16">
         <v>38655</v>
       </c>
-      <c r="M44" s="16" t="n">
+      <c r="M44" s="16">
         <v>46387</v>
       </c>
       <c r="N44" s="6" t="s">
@@ -12651,7 +12770,7 @@
       <c r="AC44" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD44" s="16" t="n">
+      <c r="AD44" s="16">
         <v>38655</v>
       </c>
       <c r="AE44" s="6" t="s">
@@ -12739,7 +12858,7 @@
       <c r="BM44" s="25"/>
       <c r="BN44" s="25"/>
       <c r="BO44" s="25"/>
-      <c r="BP44" s="16" t="n">
+      <c r="BP44" s="16">
         <v>45826</v>
       </c>
       <c r="BQ44" s="27" t="str">
@@ -12747,7 +12866,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1200519700</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -12781,10 +12900,10 @@
       <c r="K45" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L45" s="16" t="n">
+      <c r="L45" s="16">
         <v>45737</v>
       </c>
-      <c r="M45" s="16" t="n">
+      <c r="M45" s="16">
         <v>46023</v>
       </c>
       <c r="N45" s="6" t="s">
@@ -12835,7 +12954,7 @@
       <c r="AC45" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD45" s="16" t="n">
+      <c r="AD45" s="16">
         <v>45737</v>
       </c>
       <c r="AE45" s="6" t="s">
@@ -12923,7 +13042,7 @@
       <c r="BM45" s="25"/>
       <c r="BN45" s="25"/>
       <c r="BO45" s="25"/>
-      <c r="BP45" s="16" t="n">
+      <c r="BP45" s="16">
         <v>45839</v>
       </c>
       <c r="BQ45" s="27" t="str">
@@ -12931,7 +13050,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150019427</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -12965,10 +13084,10 @@
       <c r="K46" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L46" s="16" t="n">
+      <c r="L46" s="16">
         <v>39974</v>
       </c>
-      <c r="M46" s="16" t="n">
+      <c r="M46" s="16">
         <v>46023</v>
       </c>
       <c r="N46" s="6" t="s">
@@ -13019,7 +13138,7 @@
       <c r="AC46" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD46" s="16" t="n">
+      <c r="AD46" s="16">
         <v>39974</v>
       </c>
       <c r="AE46" s="6" t="s">
@@ -13107,7 +13226,7 @@
       <c r="BM46" s="25"/>
       <c r="BN46" s="25"/>
       <c r="BO46" s="25"/>
-      <c r="BP46" s="16" t="n">
+      <c r="BP46" s="16">
         <v>45796</v>
       </c>
       <c r="BQ46" s="27" t="str">
@@ -13115,7 +13234,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561002490</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -13149,10 +13268,10 @@
       <c r="K47" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L47" s="16" t="n">
+      <c r="L47" s="16">
         <v>45622</v>
       </c>
-      <c r="M47" s="16" t="n">
+      <c r="M47" s="16">
         <v>46022</v>
       </c>
       <c r="N47" s="6" t="s">
@@ -13203,7 +13322,7 @@
       <c r="AC47" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD47" s="16" t="n">
+      <c r="AD47" s="16">
         <v>45622</v>
       </c>
       <c r="AE47" s="6" t="s">
@@ -13291,7 +13410,7 @@
       <c r="BM47" s="25"/>
       <c r="BN47" s="25"/>
       <c r="BO47" s="25"/>
-      <c r="BP47" s="16" t="n">
+      <c r="BP47" s="16">
         <v>45622</v>
       </c>
       <c r="BQ47" s="27" t="str">
@@ -13299,7 +13418,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=77&amp;nopid=3510934741</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -13333,10 +13452,10 @@
       <c r="K48" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L48" s="16" t="n">
+      <c r="L48" s="16">
         <v>45385</v>
       </c>
-      <c r="M48" s="16" t="n">
+      <c r="M48" s="16">
         <v>46142</v>
       </c>
       <c r="N48" s="6" t="s">
@@ -13387,7 +13506,7 @@
       <c r="AC48" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD48" s="16" t="n">
+      <c r="AD48" s="16">
         <v>45385</v>
       </c>
       <c r="AE48" s="6" t="s">
@@ -13477,7 +13596,7 @@
       <c r="BM48" s="25"/>
       <c r="BN48" s="25"/>
       <c r="BO48" s="25"/>
-      <c r="BP48" s="16" t="n">
+      <c r="BP48" s="16">
         <v>45727</v>
       </c>
       <c r="BQ48" s="27" t="str">
@@ -13485,7 +13604,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=77&amp;nopid=3510928939</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -13519,10 +13638,10 @@
       <c r="K49" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L49" s="16" t="n">
+      <c r="L49" s="16">
         <v>45566</v>
       </c>
-      <c r="M49" s="16" t="n">
+      <c r="M49" s="16">
         <v>45900</v>
       </c>
       <c r="N49" s="6" t="s">
@@ -13573,7 +13692,7 @@
       <c r="AC49" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD49" s="16" t="n">
+      <c r="AD49" s="16">
         <v>45566</v>
       </c>
       <c r="AE49" s="6" t="s">
@@ -13663,7 +13782,7 @@
       <c r="BM49" s="25"/>
       <c r="BN49" s="25"/>
       <c r="BO49" s="25"/>
-      <c r="BP49" s="16" t="n">
+      <c r="BP49" s="16">
         <v>45621</v>
       </c>
       <c r="BQ49" s="27" t="str">
@@ -13671,7 +13790,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=77&amp;nopid=3510934737</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -13705,10 +13824,10 @@
       <c r="K50" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L50" s="16" t="n">
+      <c r="L50" s="16">
         <v>39762</v>
       </c>
-      <c r="M50" s="16" t="n">
+      <c r="M50" s="16">
         <v>46112</v>
       </c>
       <c r="N50" s="6" t="s">
@@ -13759,7 +13878,7 @@
       <c r="AC50" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD50" s="16" t="n">
+      <c r="AD50" s="16">
         <v>39762</v>
       </c>
       <c r="AE50" s="6" t="s">
@@ -13847,7 +13966,7 @@
       <c r="BM50" s="25"/>
       <c r="BN50" s="25"/>
       <c r="BO50" s="25"/>
-      <c r="BP50" s="16" t="n">
+      <c r="BP50" s="16">
         <v>45854</v>
       </c>
       <c r="BQ50" s="27" t="str">
@@ -13855,7 +13974,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=58&amp;nopid=1600003365</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -13889,10 +14008,10 @@
       <c r="K51" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L51" s="16" t="n">
+      <c r="L51" s="16">
         <v>42543</v>
       </c>
-      <c r="M51" s="16" t="n">
+      <c r="M51" s="16">
         <v>46113</v>
       </c>
       <c r="N51" s="6" t="s">
@@ -13943,7 +14062,7 @@
       <c r="AC51" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD51" s="16" t="n">
+      <c r="AD51" s="16">
         <v>42543</v>
       </c>
       <c r="AE51" s="6" t="s">
@@ -14031,7 +14150,7 @@
       <c r="BM51" s="25"/>
       <c r="BN51" s="25"/>
       <c r="BO51" s="25"/>
-      <c r="BP51" s="16" t="n">
+      <c r="BP51" s="16">
         <v>45805</v>
       </c>
       <c r="BQ51" s="27" t="str">
@@ -14039,7 +14158,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150001985</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -14073,10 +14192,10 @@
       <c r="K52" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L52" s="16" t="n">
+      <c r="L52" s="16">
         <v>45364</v>
       </c>
-      <c r="M52" s="16" t="n">
+      <c r="M52" s="16">
         <v>46081</v>
       </c>
       <c r="N52" s="6" t="s">
@@ -14127,7 +14246,7 @@
       <c r="AC52" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD52" s="16" t="n">
+      <c r="AD52" s="16">
         <v>45364</v>
       </c>
       <c r="AE52" s="6" t="s">
@@ -14215,7 +14334,7 @@
       <c r="BM52" s="25"/>
       <c r="BN52" s="25"/>
       <c r="BO52" s="25"/>
-      <c r="BP52" s="16" t="n">
+      <c r="BP52" s="16">
         <v>45777</v>
       </c>
       <c r="BQ52" s="27" t="str">
@@ -14223,7 +14342,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203804100</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -14257,10 +14376,10 @@
       <c r="K53" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L53" s="16" t="n">
+      <c r="L53" s="16">
         <v>43402</v>
       </c>
-      <c r="M53" s="16" t="n">
+      <c r="M53" s="16">
         <v>45748</v>
       </c>
       <c r="N53" s="6" t="s">
@@ -14311,7 +14430,7 @@
       <c r="AC53" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD53" s="16" t="n">
+      <c r="AD53" s="16">
         <v>43402</v>
       </c>
       <c r="AE53" s="6" t="s">
@@ -14383,7 +14502,7 @@
       <c r="BA53" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB53" s="23" t="n">
+      <c r="BB53" s="23">
         <v>0</v>
       </c>
       <c r="BC53" s="25"/>
@@ -14399,7 +14518,7 @@
       <c r="BM53" s="25"/>
       <c r="BN53" s="25"/>
       <c r="BO53" s="25"/>
-      <c r="BP53" s="16" t="n">
+      <c r="BP53" s="16">
         <v>45569</v>
       </c>
       <c r="BQ53" s="27" t="str">
@@ -14407,7 +14526,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950011098</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -14441,10 +14560,10 @@
       <c r="K54" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L54" s="16" t="n">
+      <c r="L54" s="16">
         <v>44484</v>
       </c>
-      <c r="M54" s="16" t="n">
+      <c r="M54" s="16">
         <v>46023</v>
       </c>
       <c r="N54" s="6" t="s">
@@ -14495,7 +14614,7 @@
       <c r="AC54" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD54" s="16" t="n">
+      <c r="AD54" s="16">
         <v>44484</v>
       </c>
       <c r="AE54" s="6" t="s">
@@ -14585,7 +14704,7 @@
       <c r="BM54" s="25"/>
       <c r="BN54" s="25"/>
       <c r="BO54" s="25"/>
-      <c r="BP54" s="16" t="n">
+      <c r="BP54" s="16">
         <v>45847</v>
       </c>
       <c r="BQ54" s="27" t="str">
@@ -14593,7 +14712,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150017765</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -14627,16 +14746,16 @@
       <c r="K55" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L55" s="16" t="n">
+      <c r="L55" s="16">
         <v>45323</v>
       </c>
-      <c r="M55" s="16" t="n">
+      <c r="M55" s="16">
         <v>45958</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O55" s="16" t="n">
+      <c r="O55" s="16">
         <v>45323</v>
       </c>
       <c r="P55" s="6" t="s">
@@ -14681,7 +14800,7 @@
       <c r="AC55" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD55" s="16" t="n">
+      <c r="AD55" s="16">
         <v>45323</v>
       </c>
       <c r="AE55" s="6" t="s">
@@ -14753,7 +14872,7 @@
       <c r="BA55" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB55" s="23" t="n">
+      <c r="BB55" s="23">
         <v>153</v>
       </c>
       <c r="BC55" s="25"/>
@@ -14775,7 +14894,7 @@
         <v>1363</v>
       </c>
       <c r="BO55" s="25"/>
-      <c r="BP55" s="16" t="n">
+      <c r="BP55" s="16">
         <v>45677</v>
       </c>
       <c r="BQ55" s="27" t="str">
@@ -14783,7 +14902,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=21&amp;nopid=1780898299</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -14817,10 +14936,10 @@
       <c r="K56" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L56" s="16" t="n">
+      <c r="L56" s="16">
         <v>37860</v>
       </c>
-      <c r="M56" s="16" t="n">
+      <c r="M56" s="16">
         <v>45910</v>
       </c>
       <c r="N56" s="6" t="s">
@@ -14871,7 +14990,7 @@
       <c r="AC56" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD56" s="16" t="n">
+      <c r="AD56" s="16">
         <v>37860</v>
       </c>
       <c r="AE56" s="6" t="s">
@@ -14963,7 +15082,7 @@
       <c r="BM56" s="25"/>
       <c r="BN56" s="25"/>
       <c r="BO56" s="25"/>
-      <c r="BP56" s="16" t="n">
+      <c r="BP56" s="16">
         <v>45853</v>
       </c>
       <c r="BQ56" s="27" t="str">
@@ -14971,7 +15090,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520031649</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -15005,10 +15124,10 @@
       <c r="K57" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L57" s="16" t="n">
+      <c r="L57" s="16">
         <v>38784</v>
       </c>
-      <c r="M57" s="16" t="n">
+      <c r="M57" s="16">
         <v>46023</v>
       </c>
       <c r="N57" s="6" t="s">
@@ -15059,7 +15178,7 @@
       <c r="AC57" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD57" s="16" t="n">
+      <c r="AD57" s="16">
         <v>38784</v>
       </c>
       <c r="AE57" s="6" t="s">
@@ -15147,7 +15266,7 @@
       <c r="BM57" s="25"/>
       <c r="BN57" s="25"/>
       <c r="BO57" s="25"/>
-      <c r="BP57" s="16" t="n">
+      <c r="BP57" s="16">
         <v>45849</v>
       </c>
       <c r="BQ57" s="27" t="str">
@@ -15155,7 +15274,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150000281</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -15189,10 +15308,10 @@
       <c r="K58" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L58" s="16" t="n">
+      <c r="L58" s="16">
         <v>39839</v>
       </c>
-      <c r="M58" s="16" t="n">
+      <c r="M58" s="16">
         <v>46054</v>
       </c>
       <c r="N58" s="6" t="s">
@@ -15243,7 +15362,7 @@
       <c r="AC58" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD58" s="16" t="n">
+      <c r="AD58" s="16">
         <v>39839</v>
       </c>
       <c r="AE58" s="6" t="s">
@@ -15315,7 +15434,7 @@
       <c r="BA58" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="BB58" s="23" t="n">
+      <c r="BB58" s="23">
         <v>0</v>
       </c>
       <c r="BC58" s="25"/>
@@ -15331,7 +15450,7 @@
       <c r="BM58" s="25"/>
       <c r="BN58" s="25"/>
       <c r="BO58" s="25"/>
-      <c r="BP58" s="16" t="n">
+      <c r="BP58" s="16">
         <v>45823</v>
       </c>
       <c r="BQ58" s="27" t="str">
@@ -15339,7 +15458,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950003314</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -15373,10 +15492,10 @@
       <c r="K59" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L59" s="16" t="n">
+      <c r="L59" s="16">
         <v>38467</v>
       </c>
-      <c r="M59" s="16" t="n">
+      <c r="M59" s="16">
         <v>45959</v>
       </c>
       <c r="N59" s="6" t="s">
@@ -15427,7 +15546,7 @@
       <c r="AC59" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD59" s="16" t="n">
+      <c r="AD59" s="16">
         <v>38467</v>
       </c>
       <c r="AE59" s="6" t="s">
@@ -15515,7 +15634,7 @@
       <c r="BM59" s="25"/>
       <c r="BN59" s="25"/>
       <c r="BO59" s="25"/>
-      <c r="BP59" s="16" t="n">
+      <c r="BP59" s="16">
         <v>45849</v>
       </c>
       <c r="BQ59" s="27" t="str">
@@ -15523,7 +15642,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1200077800</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -15557,16 +15676,16 @@
       <c r="K60" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L60" s="16" t="n">
+      <c r="L60" s="16">
         <v>45498</v>
       </c>
-      <c r="M60" s="16" t="n">
+      <c r="M60" s="16">
         <v>46023</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O60" s="16" t="n">
+      <c r="O60" s="16">
         <v>45835</v>
       </c>
       <c r="P60" s="6" t="s">
@@ -15611,7 +15730,7 @@
       <c r="AC60" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD60" s="16" t="n">
+      <c r="AD60" s="16">
         <v>45498</v>
       </c>
       <c r="AE60" s="6" t="s">
@@ -15683,7 +15802,7 @@
       <c r="BA60" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB60" s="23" t="n">
+      <c r="BB60" s="23">
         <v>0</v>
       </c>
       <c r="BC60" s="25"/>
@@ -15699,7 +15818,7 @@
       <c r="BM60" s="25"/>
       <c r="BN60" s="25"/>
       <c r="BO60" s="25"/>
-      <c r="BP60" s="16" t="n">
+      <c r="BP60" s="16">
         <v>45854</v>
       </c>
       <c r="BQ60" s="27" t="str">
@@ -15707,7 +15826,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150025064</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -15741,10 +15860,10 @@
       <c r="K61" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L61" s="16" t="n">
+      <c r="L61" s="16">
         <v>39888</v>
       </c>
-      <c r="M61" s="16" t="n">
+      <c r="M61" s="16">
         <v>45672</v>
       </c>
       <c r="N61" s="6" t="s">
@@ -15795,7 +15914,7 @@
       <c r="AC61" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD61" s="16" t="n">
+      <c r="AD61" s="16">
         <v>39888</v>
       </c>
       <c r="AE61" s="6" t="s">
@@ -15883,7 +16002,7 @@
       <c r="BM61" s="25"/>
       <c r="BN61" s="25"/>
       <c r="BO61" s="25"/>
-      <c r="BP61" s="16" t="n">
+      <c r="BP61" s="16">
         <v>45834</v>
       </c>
       <c r="BQ61" s="27" t="str">
@@ -15891,7 +16010,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=46&amp;nopid=3670900001</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -15925,10 +16044,10 @@
       <c r="K62" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L62" s="16" t="n">
+      <c r="L62" s="16">
         <v>43529</v>
       </c>
-      <c r="M62" s="16" t="n">
+      <c r="M62" s="16">
         <v>45748</v>
       </c>
       <c r="N62" s="6" t="s">
@@ -15979,7 +16098,7 @@
       <c r="AC62" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD62" s="16" t="n">
+      <c r="AD62" s="16">
         <v>43529</v>
       </c>
       <c r="AE62" s="6" t="s">
@@ -16051,7 +16170,7 @@
       <c r="BA62" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB62" s="23" t="n">
+      <c r="BB62" s="23">
         <v>0</v>
       </c>
       <c r="BC62" s="25"/>
@@ -16067,7 +16186,7 @@
       <c r="BM62" s="25"/>
       <c r="BN62" s="25"/>
       <c r="BO62" s="25"/>
-      <c r="BP62" s="16" t="n">
+      <c r="BP62" s="16">
         <v>45492</v>
       </c>
       <c r="BQ62" s="27" t="str">
@@ -16075,7 +16194,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950011321</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -16109,10 +16228,10 @@
       <c r="K63" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L63" s="16" t="n">
+      <c r="L63" s="16">
         <v>45611</v>
       </c>
-      <c r="M63" s="16" t="n">
+      <c r="M63" s="16">
         <v>46023</v>
       </c>
       <c r="N63" s="6" t="s">
@@ -16163,7 +16282,7 @@
       <c r="AC63" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD63" s="16" t="n">
+      <c r="AD63" s="16">
         <v>45611</v>
       </c>
       <c r="AE63" s="6" t="s">
@@ -16251,7 +16370,7 @@
       <c r="BM63" s="25"/>
       <c r="BN63" s="25"/>
       <c r="BO63" s="25"/>
-      <c r="BP63" s="16" t="n">
+      <c r="BP63" s="16">
         <v>45796</v>
       </c>
       <c r="BQ63" s="27" t="str">
@@ -16259,7 +16378,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561008705</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -16293,10 +16412,10 @@
       <c r="K64" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L64" s="16" t="n">
+      <c r="L64" s="16">
         <v>45469</v>
       </c>
-      <c r="M64" s="16" t="n">
+      <c r="M64" s="16">
         <v>45834</v>
       </c>
       <c r="N64" s="6" t="s">
@@ -16347,7 +16466,7 @@
       <c r="AC64" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD64" s="16" t="n">
+      <c r="AD64" s="16">
         <v>45469</v>
       </c>
       <c r="AE64" s="6" t="s">
@@ -16435,7 +16554,7 @@
       <c r="BM64" s="25"/>
       <c r="BN64" s="25"/>
       <c r="BO64" s="25"/>
-      <c r="BP64" s="16" t="n">
+      <c r="BP64" s="16">
         <v>45720</v>
       </c>
       <c r="BQ64" s="27" t="str">
@@ -16443,7 +16562,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1200339300</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -16477,10 +16596,10 @@
       <c r="K65" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L65" s="16" t="n">
+      <c r="L65" s="16">
         <v>45174</v>
       </c>
-      <c r="M65" s="16" t="n">
+      <c r="M65" s="16">
         <v>46054</v>
       </c>
       <c r="N65" s="6" t="s">
@@ -16531,7 +16650,7 @@
       <c r="AC65" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD65" s="16" t="n">
+      <c r="AD65" s="16">
         <v>45174</v>
       </c>
       <c r="AE65" s="6" t="s">
@@ -16603,7 +16722,7 @@
       <c r="BA65" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB65" s="23" t="n">
+      <c r="BB65" s="23">
         <v>0</v>
       </c>
       <c r="BC65" s="25"/>
@@ -16621,7 +16740,7 @@
       <c r="BM65" s="25"/>
       <c r="BN65" s="25"/>
       <c r="BO65" s="25"/>
-      <c r="BP65" s="16" t="n">
+      <c r="BP65" s="16">
         <v>45824</v>
       </c>
       <c r="BQ65" s="27" t="str">
@@ -16629,7 +16748,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950013718</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -16663,10 +16782,10 @@
       <c r="K66" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L66" s="16" t="n">
+      <c r="L66" s="16">
         <v>41198</v>
       </c>
-      <c r="M66" s="16" t="n">
+      <c r="M66" s="16">
         <v>46022</v>
       </c>
       <c r="N66" s="6" t="s">
@@ -16717,7 +16836,7 @@
       <c r="AC66" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD66" s="16" t="n">
+      <c r="AD66" s="16">
         <v>41198</v>
       </c>
       <c r="AE66" s="6" t="s">
@@ -16805,7 +16924,7 @@
       <c r="BM66" s="25"/>
       <c r="BN66" s="25"/>
       <c r="BO66" s="25"/>
-      <c r="BP66" s="16" t="n">
+      <c r="BP66" s="16">
         <v>45604</v>
       </c>
       <c r="BQ66" s="27" t="str">
@@ -16813,7 +16932,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1202138600</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -16847,10 +16966,10 @@
       <c r="K67" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L67" s="16" t="n">
+      <c r="L67" s="16">
         <v>40858</v>
       </c>
-      <c r="M67" s="16" t="n">
+      <c r="M67" s="16">
         <v>46081</v>
       </c>
       <c r="N67" s="6" t="s">
@@ -16901,7 +17020,7 @@
       <c r="AC67" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD67" s="16" t="n">
+      <c r="AD67" s="16">
         <v>40858</v>
       </c>
       <c r="AE67" s="6" t="s">
@@ -16989,7 +17108,7 @@
       <c r="BM67" s="25"/>
       <c r="BN67" s="25"/>
       <c r="BO67" s="25"/>
-      <c r="BP67" s="16" t="n">
+      <c r="BP67" s="16">
         <v>45604</v>
       </c>
       <c r="BQ67" s="27" t="str">
@@ -16997,7 +17116,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1202079500</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -17031,10 +17150,10 @@
       <c r="K68" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L68" s="16" t="n">
+      <c r="L68" s="16">
         <v>45364</v>
       </c>
-      <c r="M68" s="16" t="n">
+      <c r="M68" s="16">
         <v>46081</v>
       </c>
       <c r="N68" s="6" t="s">
@@ -17085,7 +17204,7 @@
       <c r="AC68" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD68" s="16" t="n">
+      <c r="AD68" s="16">
         <v>45364</v>
       </c>
       <c r="AE68" s="6" t="s">
@@ -17173,7 +17292,7 @@
       <c r="BM68" s="25"/>
       <c r="BN68" s="25"/>
       <c r="BO68" s="25"/>
-      <c r="BP68" s="16" t="n">
+      <c r="BP68" s="16">
         <v>45763</v>
       </c>
       <c r="BQ68" s="27" t="str">
@@ -17181,7 +17300,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203818100</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -17215,10 +17334,10 @@
       <c r="K69" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L69" s="16" t="n">
+      <c r="L69" s="16">
         <v>41850</v>
       </c>
-      <c r="M69" s="16" t="n">
+      <c r="M69" s="16">
         <v>46023</v>
       </c>
       <c r="N69" s="6" t="s">
@@ -17269,7 +17388,7 @@
       <c r="AC69" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD69" s="16" t="n">
+      <c r="AD69" s="16">
         <v>41850</v>
       </c>
       <c r="AE69" s="6" t="s">
@@ -17357,7 +17476,7 @@
       <c r="BM69" s="25"/>
       <c r="BN69" s="25"/>
       <c r="BO69" s="25"/>
-      <c r="BP69" s="16" t="n">
+      <c r="BP69" s="16">
         <v>45805</v>
       </c>
       <c r="BQ69" s="27" t="str">
@@ -17365,7 +17484,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150001745</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -17399,10 +17518,10 @@
       <c r="K70" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L70" s="16" t="n">
+      <c r="L70" s="16">
         <v>44286</v>
       </c>
-      <c r="M70" s="16" t="n">
+      <c r="M70" s="16">
         <v>46023</v>
       </c>
       <c r="N70" s="6" t="s">
@@ -17453,7 +17572,7 @@
       <c r="AC70" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD70" s="16" t="n">
+      <c r="AD70" s="16">
         <v>44286</v>
       </c>
       <c r="AE70" s="6" t="s">
@@ -17541,7 +17660,7 @@
       <c r="BM70" s="25"/>
       <c r="BN70" s="25"/>
       <c r="BO70" s="25"/>
-      <c r="BP70" s="16" t="n">
+      <c r="BP70" s="16">
         <v>45796</v>
       </c>
       <c r="BQ70" s="27" t="str">
@@ -17549,7 +17668,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561006591</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -17583,10 +17702,10 @@
       <c r="K71" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L71" s="16" t="n">
+      <c r="L71" s="16">
         <v>37375</v>
       </c>
-      <c r="M71" s="16" t="n">
+      <c r="M71" s="16">
         <v>46023</v>
       </c>
       <c r="N71" s="6" t="s">
@@ -17637,7 +17756,7 @@
       <c r="AC71" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD71" s="16" t="n">
+      <c r="AD71" s="16">
         <v>37375</v>
       </c>
       <c r="AE71" s="6" t="s">
@@ -17727,7 +17846,7 @@
       <c r="BM71" s="25"/>
       <c r="BN71" s="25"/>
       <c r="BO71" s="25"/>
-      <c r="BP71" s="16" t="n">
+      <c r="BP71" s="16">
         <v>45805</v>
       </c>
       <c r="BQ71" s="27" t="str">
@@ -17735,7 +17854,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150000195</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -17769,10 +17888,10 @@
       <c r="K72" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L72" s="16" t="n">
+      <c r="L72" s="16">
         <v>45230</v>
       </c>
-      <c r="M72" s="16" t="n">
+      <c r="M72" s="16">
         <v>45962</v>
       </c>
       <c r="N72" s="6" t="s">
@@ -17823,7 +17942,7 @@
       <c r="AC72" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD72" s="16" t="n">
+      <c r="AD72" s="16">
         <v>45230</v>
       </c>
       <c r="AE72" s="6" t="s">
@@ -17895,7 +18014,7 @@
       <c r="BA72" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB72" s="23" t="n">
+      <c r="BB72" s="23">
         <v>0</v>
       </c>
       <c r="BC72" s="25"/>
@@ -17911,7 +18030,7 @@
       <c r="BM72" s="25"/>
       <c r="BN72" s="25"/>
       <c r="BO72" s="25"/>
-      <c r="BP72" s="16" t="n">
+      <c r="BP72" s="16">
         <v>45842</v>
       </c>
       <c r="BQ72" s="27" t="str">
@@ -17919,7 +18038,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=24&amp;nopid=7880266200</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -17953,10 +18072,10 @@
       <c r="K73" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L73" s="16" t="n">
+      <c r="L73" s="16">
         <v>45589</v>
       </c>
-      <c r="M73" s="16" t="n">
+      <c r="M73" s="16">
         <v>46023</v>
       </c>
       <c r="N73" s="6" t="s">
@@ -18007,7 +18126,7 @@
       <c r="AC73" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD73" s="16" t="n">
+      <c r="AD73" s="16">
         <v>45589</v>
       </c>
       <c r="AE73" s="6" t="s">
@@ -18095,7 +18214,7 @@
       <c r="BM73" s="25"/>
       <c r="BN73" s="25"/>
       <c r="BO73" s="25"/>
-      <c r="BP73" s="16" t="n">
+      <c r="BP73" s="16">
         <v>45805</v>
       </c>
       <c r="BQ73" s="27" t="str">
@@ -18103,7 +18222,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150025534</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -18137,10 +18256,10 @@
       <c r="K74" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L74" s="16" t="n">
+      <c r="L74" s="16">
         <v>45384</v>
       </c>
-      <c r="M74" s="16" t="n">
+      <c r="M74" s="16">
         <v>46023</v>
       </c>
       <c r="N74" s="6" t="s">
@@ -18191,7 +18310,7 @@
       <c r="AC74" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD74" s="16" t="n">
+      <c r="AD74" s="16">
         <v>45384</v>
       </c>
       <c r="AE74" s="6" t="s">
@@ -18283,7 +18402,7 @@
       <c r="BM74" s="25"/>
       <c r="BN74" s="25"/>
       <c r="BO74" s="25"/>
-      <c r="BP74" s="16" t="n">
+      <c r="BP74" s="16">
         <v>45805</v>
       </c>
       <c r="BQ74" s="27" t="str">
@@ -18291,7 +18410,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150024477</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -18325,10 +18444,10 @@
       <c r="K75" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L75" s="16" t="n">
+      <c r="L75" s="16">
         <v>44652</v>
       </c>
-      <c r="M75" s="16" t="n">
+      <c r="M75" s="16">
         <v>45689</v>
       </c>
       <c r="N75" s="6" t="s">
@@ -18379,7 +18498,7 @@
       <c r="AC75" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD75" s="16" t="n">
+      <c r="AD75" s="16">
         <v>44652</v>
       </c>
       <c r="AE75" s="6" t="s">
@@ -18451,7 +18570,7 @@
       <c r="BA75" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB75" s="23" t="n">
+      <c r="BB75" s="23">
         <v>0</v>
       </c>
       <c r="BC75" s="25"/>
@@ -18471,7 +18590,7 @@
       <c r="BM75" s="25"/>
       <c r="BN75" s="25"/>
       <c r="BO75" s="25"/>
-      <c r="BP75" s="16" t="n">
+      <c r="BP75" s="16">
         <v>45754</v>
       </c>
       <c r="BQ75" s="27" t="str">
@@ -18479,7 +18598,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950013295</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -18513,16 +18632,16 @@
       <c r="K76" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L76" s="16" t="n">
+      <c r="L76" s="16">
         <v>39679</v>
       </c>
-      <c r="M76" s="16" t="n">
+      <c r="M76" s="16">
         <v>45838</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O76" s="16" t="n">
+      <c r="O76" s="16">
         <v>39679</v>
       </c>
       <c r="P76" s="6" t="s">
@@ -18567,7 +18686,7 @@
       <c r="AC76" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD76" s="16" t="n">
+      <c r="AD76" s="16">
         <v>39679</v>
       </c>
       <c r="AE76" s="6" t="s">
@@ -18639,7 +18758,7 @@
       <c r="BA76" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB76" s="23" t="n">
+      <c r="BB76" s="23">
         <v>1</v>
       </c>
       <c r="BC76" s="25"/>
@@ -18655,7 +18774,7 @@
       <c r="BM76" s="25"/>
       <c r="BN76" s="25"/>
       <c r="BO76" s="25"/>
-      <c r="BP76" s="16" t="n">
+      <c r="BP76" s="16">
         <v>45792</v>
       </c>
       <c r="BQ76" s="27" t="str">
@@ -18663,7 +18782,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1201792000</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -18697,10 +18816,10 @@
       <c r="K77" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L77" s="16" t="n">
+      <c r="L77" s="16">
         <v>45504</v>
       </c>
-      <c r="M77" s="16" t="n">
+      <c r="M77" s="16">
         <v>45869</v>
       </c>
       <c r="N77" s="6" t="s">
@@ -18751,7 +18870,7 @@
       <c r="AC77" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD77" s="16" t="n">
+      <c r="AD77" s="16">
         <v>45504</v>
       </c>
       <c r="AE77" s="6" t="s">
@@ -18839,7 +18958,7 @@
       <c r="BM77" s="25"/>
       <c r="BN77" s="25"/>
       <c r="BO77" s="25"/>
-      <c r="BP77" s="16" t="n">
+      <c r="BP77" s="16">
         <v>45656</v>
       </c>
       <c r="BQ77" s="27" t="str">
@@ -18847,7 +18966,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=9&amp;nopid=1203852600</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -18881,10 +19000,10 @@
       <c r="K78" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L78" s="16" t="n">
+      <c r="L78" s="16">
         <v>43818</v>
       </c>
-      <c r="M78" s="16" t="n">
+      <c r="M78" s="16">
         <v>46082</v>
       </c>
       <c r="N78" s="6" t="s">
@@ -18935,7 +19054,7 @@
       <c r="AC78" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD78" s="16" t="n">
+      <c r="AD78" s="16">
         <v>44671</v>
       </c>
       <c r="AE78" s="6" t="s">
@@ -19023,7 +19142,7 @@
       <c r="BM78" s="25"/>
       <c r="BN78" s="25"/>
       <c r="BO78" s="25"/>
-      <c r="BP78" s="16" t="n">
+      <c r="BP78" s="16">
         <v>45834</v>
       </c>
       <c r="BQ78" s="27" t="str">
@@ -19031,7 +19150,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=1&amp;nopid=9092208301</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -19065,10 +19184,10 @@
       <c r="K79" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L79" s="16" t="n">
+      <c r="L79" s="16">
         <v>44693</v>
       </c>
-      <c r="M79" s="16" t="n">
+      <c r="M79" s="16">
         <v>46112</v>
       </c>
       <c r="N79" s="6" t="s">
@@ -19119,7 +19238,7 @@
       <c r="AC79" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD79" s="16" t="n">
+      <c r="AD79" s="16">
         <v>44693</v>
       </c>
       <c r="AE79" s="6" t="s">
@@ -19191,7 +19310,7 @@
       <c r="BA79" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="BB79" s="23" t="n">
+      <c r="BB79" s="23">
         <v>0</v>
       </c>
       <c r="BC79" s="25"/>
@@ -19207,7 +19326,7 @@
       <c r="BM79" s="25"/>
       <c r="BN79" s="25"/>
       <c r="BO79" s="25"/>
-      <c r="BP79" s="16" t="n">
+      <c r="BP79" s="16">
         <v>45846</v>
       </c>
       <c r="BQ79" s="27" t="str">
@@ -19215,7 +19334,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=7&amp;nopid=3950001013</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -19249,10 +19368,10 @@
       <c r="K80" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L80" s="16" t="n">
+      <c r="L80" s="16">
         <v>43991</v>
       </c>
-      <c r="M80" s="16" t="n">
+      <c r="M80" s="16">
         <v>45824</v>
       </c>
       <c r="N80" s="6" t="s">
@@ -19303,7 +19422,7 @@
       <c r="AC80" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD80" s="16" t="n">
+      <c r="AD80" s="16">
         <v>43998</v>
       </c>
       <c r="AE80" s="6" t="s">
@@ -19391,7 +19510,7 @@
       <c r="BM80" s="25"/>
       <c r="BN80" s="25"/>
       <c r="BO80" s="25"/>
-      <c r="BP80" s="16" t="n">
+      <c r="BP80" s="16">
         <v>45834</v>
       </c>
       <c r="BQ80" s="27" t="str">
@@ -19399,7 +19518,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=1&amp;nopid=9092016805</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -19433,10 +19552,10 @@
       <c r="K81" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L81" s="16" t="n">
+      <c r="L81" s="16">
         <v>45379</v>
       </c>
-      <c r="M81" s="16" t="n">
+      <c r="M81" s="16">
         <v>46023</v>
       </c>
       <c r="N81" s="6" t="s">
@@ -19487,7 +19606,7 @@
       <c r="AC81" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD81" s="16" t="n">
+      <c r="AD81" s="16">
         <v>45379</v>
       </c>
       <c r="AE81" s="6" t="s">
@@ -19579,7 +19698,7 @@
       <c r="BM81" s="25"/>
       <c r="BN81" s="25"/>
       <c r="BO81" s="25"/>
-      <c r="BP81" s="16" t="n">
+      <c r="BP81" s="16">
         <v>45805</v>
       </c>
       <c r="BQ81" s="27" t="str">
@@ -19587,7 +19706,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150024729</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -19621,10 +19740,10 @@
       <c r="K82" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L82" s="16" t="n">
+      <c r="L82" s="16">
         <v>43129</v>
       </c>
-      <c r="M82" s="16" t="n">
+      <c r="M82" s="16">
         <v>46023</v>
       </c>
       <c r="N82" s="6" t="s">
@@ -19675,7 +19794,7 @@
       <c r="AC82" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD82" s="16" t="n">
+      <c r="AD82" s="16">
         <v>43129</v>
       </c>
       <c r="AE82" s="6" t="s">
@@ -19765,7 +19884,7 @@
       <c r="BM82" s="25"/>
       <c r="BN82" s="25"/>
       <c r="BO82" s="25"/>
-      <c r="BP82" s="16" t="n">
+      <c r="BP82" s="16">
         <v>45805</v>
       </c>
       <c r="BQ82" s="27" t="str">
@@ -19773,7 +19892,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150006745</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -19807,10 +19926,10 @@
       <c r="K83" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L83" s="16" t="n">
+      <c r="L83" s="16">
         <v>43283</v>
       </c>
-      <c r="M83" s="16" t="n">
+      <c r="M83" s="16">
         <v>45716</v>
       </c>
       <c r="N83" s="6" t="s">
@@ -19861,7 +19980,7 @@
       <c r="AC83" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD83" s="16" t="n">
+      <c r="AD83" s="16">
         <v>43355</v>
       </c>
       <c r="AE83" s="6" t="s">
@@ -19933,7 +20052,7 @@
       <c r="BA83" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="BB83" s="23" t="n">
+      <c r="BB83" s="23">
         <v>0</v>
       </c>
       <c r="BC83" s="25"/>
@@ -19949,7 +20068,7 @@
       <c r="BM83" s="25"/>
       <c r="BN83" s="25"/>
       <c r="BO83" s="25"/>
-      <c r="BP83" s="16" t="n">
+      <c r="BP83" s="16">
         <v>45473</v>
       </c>
       <c r="BQ83" s="27" t="str">
@@ -19957,7 +20076,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=7&amp;nopid=3950000868</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -19991,16 +20110,16 @@
       <c r="K84" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L84" s="16" t="n">
+      <c r="L84" s="16">
         <v>41344</v>
       </c>
-      <c r="M84" s="16" t="n">
+      <c r="M84" s="16">
         <v>45689</v>
       </c>
       <c r="N84" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O84" s="16" t="n">
+      <c r="O84" s="16">
         <v>41344</v>
       </c>
       <c r="P84" s="6" t="s">
@@ -20045,7 +20164,7 @@
       <c r="AC84" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD84" s="16" t="n">
+      <c r="AD84" s="16">
         <v>41344</v>
       </c>
       <c r="AE84" s="6" t="s">
@@ -20117,7 +20236,7 @@
       <c r="BA84" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="BB84" s="23" t="n">
+      <c r="BB84" s="23">
         <v>26</v>
       </c>
       <c r="BC84" s="25"/>
@@ -20135,7 +20254,7 @@
       <c r="BM84" s="25"/>
       <c r="BN84" s="25"/>
       <c r="BO84" s="25"/>
-      <c r="BP84" s="16" t="n">
+      <c r="BP84" s="16">
         <v>45813</v>
       </c>
       <c r="BQ84" s="27" t="str">
@@ -20143,7 +20262,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=24&amp;nopid=7880126732</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -20177,10 +20296,10 @@
       <c r="K85" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L85" s="16" t="n">
+      <c r="L85" s="16">
         <v>41995</v>
       </c>
-      <c r="M85" s="16" t="n">
+      <c r="M85" s="16">
         <v>46023</v>
       </c>
       <c r="N85" s="6" t="s">
@@ -20231,7 +20350,7 @@
       <c r="AC85" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD85" s="16" t="n">
+      <c r="AD85" s="16">
         <v>41995</v>
       </c>
       <c r="AE85" s="6" t="s">
@@ -20323,7 +20442,7 @@
       <c r="BM85" s="25"/>
       <c r="BN85" s="25"/>
       <c r="BO85" s="25"/>
-      <c r="BP85" s="16" t="n">
+      <c r="BP85" s="16">
         <v>45826</v>
       </c>
       <c r="BQ85" s="27" t="str">
@@ -20331,7 +20450,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=62&amp;nopid=8150000074</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -20365,10 +20484,10 @@
       <c r="K86" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L86" s="16" t="n">
+      <c r="L86" s="16">
         <v>44391</v>
       </c>
-      <c r="M86" s="16" t="n">
+      <c r="M86" s="16">
         <v>46217</v>
       </c>
       <c r="N86" s="6" t="s">
@@ -20419,7 +20538,7 @@
       <c r="AC86" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD86" s="16" t="n">
+      <c r="AD86" s="16">
         <v>44391</v>
       </c>
       <c r="AE86" s="6" t="s">
@@ -20509,7 +20628,7 @@
       <c r="BM86" s="25"/>
       <c r="BN86" s="25"/>
       <c r="BO86" s="25"/>
-      <c r="BP86" s="16" t="n">
+      <c r="BP86" s="16">
         <v>45754</v>
       </c>
       <c r="BQ86" s="27" t="str">
@@ -20517,7 +20636,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=69&amp;nopid=1560062000</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -20551,16 +20670,16 @@
       <c r="K87" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L87" s="16" t="n">
+      <c r="L87" s="16">
         <v>37789</v>
       </c>
-      <c r="M87" s="16" t="n">
+      <c r="M87" s="16">
         <v>46023</v>
       </c>
       <c r="N87" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O87" s="16" t="n">
+      <c r="O87" s="16">
         <v>40867</v>
       </c>
       <c r="P87" s="6" t="s">
@@ -20605,7 +20724,7 @@
       <c r="AC87" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD87" s="16" t="n">
+      <c r="AD87" s="16">
         <v>37789</v>
       </c>
       <c r="AE87" s="6" t="s">
@@ -20677,7 +20796,7 @@
       <c r="BA87" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB87" s="23" t="n">
+      <c r="BB87" s="23">
         <v>9</v>
       </c>
       <c r="BC87" s="25"/>
@@ -20693,7 +20812,7 @@
       <c r="BM87" s="25"/>
       <c r="BN87" s="25"/>
       <c r="BO87" s="25"/>
-      <c r="BP87" s="16" t="n">
+      <c r="BP87" s="16">
         <v>45796</v>
       </c>
       <c r="BQ87" s="27" t="str">
@@ -20701,7 +20820,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561002377</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -20735,10 +20854,10 @@
       <c r="K88" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L88" s="16" t="n">
+      <c r="L88" s="16">
         <v>43571</v>
       </c>
-      <c r="M88" s="16" t="n">
+      <c r="M88" s="16">
         <v>46021</v>
       </c>
       <c r="N88" s="6" t="s">
@@ -20789,7 +20908,7 @@
       <c r="AC88" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD88" s="16" t="n">
+      <c r="AD88" s="16">
         <v>43558</v>
       </c>
       <c r="AE88" s="6" t="s">
@@ -20861,7 +20980,7 @@
       <c r="BA88" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="BB88" s="23" t="n">
+      <c r="BB88" s="23">
         <v>0</v>
       </c>
       <c r="BC88" s="25"/>
@@ -20877,7 +20996,7 @@
       <c r="BM88" s="25"/>
       <c r="BN88" s="25"/>
       <c r="BO88" s="25"/>
-      <c r="BP88" s="16" t="n">
+      <c r="BP88" s="16">
         <v>45793</v>
       </c>
       <c r="BQ88" s="27" t="str">
@@ -20885,7 +21004,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=7&amp;nopid=3950000934</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -20919,10 +21038,10 @@
       <c r="K89" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L89" s="16" t="n">
+      <c r="L89" s="16">
         <v>44601</v>
       </c>
-      <c r="M89" s="16" t="n">
+      <c r="M89" s="16">
         <v>46023</v>
       </c>
       <c r="N89" s="6" t="s">
@@ -20973,7 +21092,7 @@
       <c r="AC89" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD89" s="16" t="n">
+      <c r="AD89" s="16">
         <v>44601</v>
       </c>
       <c r="AE89" s="6" t="s">
@@ -21061,7 +21180,7 @@
       <c r="BM89" s="25"/>
       <c r="BN89" s="25"/>
       <c r="BO89" s="25"/>
-      <c r="BP89" s="16" t="n">
+      <c r="BP89" s="16">
         <v>45840</v>
       </c>
       <c r="BQ89" s="27" t="str">
@@ -21069,7 +21188,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561002147</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -21103,10 +21222,10 @@
       <c r="K90" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L90" s="16" t="n">
+      <c r="L90" s="16">
         <v>45391</v>
       </c>
-      <c r="M90" s="16" t="n">
+      <c r="M90" s="16">
         <v>46023</v>
       </c>
       <c r="N90" s="6" t="s">
@@ -21157,7 +21276,7 @@
       <c r="AC90" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD90" s="16" t="n">
+      <c r="AD90" s="16">
         <v>45391</v>
       </c>
       <c r="AE90" s="6" t="s">
@@ -21251,14 +21370,15 @@
       <c r="BM90" s="25"/>
       <c r="BN90" s="25"/>
       <c r="BO90" s="25"/>
-      <c r="BP90" s="16" t="n">
+      <c r="BP90" s="16">
         <v>45854</v>
       </c>
       <c r="BQ90" s="27" t="str">
         <f>HYPERLINK("")</f>
+        <v/>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -21292,10 +21412,10 @@
       <c r="K91" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L91" s="16" t="n">
+      <c r="L91" s="16">
         <v>43497</v>
       </c>
-      <c r="M91" s="16" t="n">
+      <c r="M91" s="16">
         <v>45748</v>
       </c>
       <c r="N91" s="6" t="s">
@@ -21346,7 +21466,7 @@
       <c r="AC91" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD91" s="16" t="n">
+      <c r="AD91" s="16">
         <v>43497</v>
       </c>
       <c r="AE91" s="6" t="s">
@@ -21418,7 +21538,7 @@
       <c r="BA91" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB91" s="23" t="n">
+      <c r="BB91" s="23">
         <v>0</v>
       </c>
       <c r="BC91" s="25"/>
@@ -21436,7 +21556,7 @@
       <c r="BM91" s="25"/>
       <c r="BN91" s="25"/>
       <c r="BO91" s="25"/>
-      <c r="BP91" s="16" t="n">
+      <c r="BP91" s="16">
         <v>45659</v>
       </c>
       <c r="BQ91" s="27" t="str">
@@ -21444,7 +21564,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950011509</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -21478,10 +21598,10 @@
       <c r="K92" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L92" s="16" t="n">
+      <c r="L92" s="16">
         <v>43782</v>
       </c>
-      <c r="M92" s="16" t="n">
+      <c r="M92" s="16">
         <v>45974</v>
       </c>
       <c r="N92" s="6" t="s">
@@ -21532,7 +21652,7 @@
       <c r="AC92" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD92" s="16" t="n">
+      <c r="AD92" s="16">
         <v>43782</v>
       </c>
       <c r="AE92" s="6" t="s">
@@ -21620,7 +21740,7 @@
       <c r="BM92" s="25"/>
       <c r="BN92" s="25"/>
       <c r="BO92" s="25"/>
-      <c r="BP92" s="16" t="n">
+      <c r="BP92" s="16">
         <v>45755</v>
       </c>
       <c r="BQ92" s="27" t="str">
@@ -21628,7 +21748,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=63&amp;nopid=6220008111</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -21662,10 +21782,10 @@
       <c r="K93" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L93" s="16" t="n">
+      <c r="L93" s="16">
         <v>43355</v>
       </c>
-      <c r="M93" s="16" t="n">
+      <c r="M93" s="16">
         <v>45689</v>
       </c>
       <c r="N93" s="6" t="s">
@@ -21716,7 +21836,7 @@
       <c r="AC93" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD93" s="16" t="n">
+      <c r="AD93" s="16">
         <v>43355</v>
       </c>
       <c r="AE93" s="6" t="s">
@@ -21788,7 +21908,7 @@
       <c r="BA93" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB93" s="23" t="n">
+      <c r="BB93" s="23">
         <v>0</v>
       </c>
       <c r="BC93" s="25"/>
@@ -21804,7 +21924,7 @@
       <c r="BM93" s="25"/>
       <c r="BN93" s="25"/>
       <c r="BO93" s="25"/>
-      <c r="BP93" s="16" t="n">
+      <c r="BP93" s="16">
         <v>45734</v>
       </c>
       <c r="BQ93" s="27" t="str">
@@ -21812,7 +21932,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950010664</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -21846,10 +21966,10 @@
       <c r="K94" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L94" s="16" t="n">
+      <c r="L94" s="16">
         <v>45694</v>
       </c>
-      <c r="M94" s="16" t="n">
+      <c r="M94" s="16">
         <v>46054</v>
       </c>
       <c r="N94" s="6" t="s">
@@ -21900,7 +22020,7 @@
       <c r="AC94" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD94" s="16" t="n">
+      <c r="AD94" s="16">
         <v>45694</v>
       </c>
       <c r="AE94" s="6" t="s">
@@ -21972,7 +22092,7 @@
       <c r="BA94" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB94" s="23" t="n">
+      <c r="BB94" s="23">
         <v>0</v>
       </c>
       <c r="BC94" s="25"/>
@@ -21990,7 +22110,7 @@
       <c r="BM94" s="25"/>
       <c r="BN94" s="25"/>
       <c r="BO94" s="25"/>
-      <c r="BP94" s="16" t="n">
+      <c r="BP94" s="16">
         <v>45694</v>
       </c>
       <c r="BQ94" s="27" t="str">
@@ -21998,7 +22118,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=45&amp;nopid=9950014248</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -22032,10 +22152,10 @@
       <c r="K95" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L95" s="16" t="n">
+      <c r="L95" s="16">
         <v>37560</v>
       </c>
-      <c r="M95" s="16" t="n">
+      <c r="M95" s="16">
         <v>45847</v>
       </c>
       <c r="N95" s="6" t="s">
@@ -22086,7 +22206,7 @@
       <c r="AC95" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD95" s="16" t="n">
+      <c r="AD95" s="16">
         <v>37560</v>
       </c>
       <c r="AE95" s="6" t="s">
@@ -22176,7 +22296,7 @@
       <c r="BM95" s="25"/>
       <c r="BN95" s="25"/>
       <c r="BO95" s="25"/>
-      <c r="BP95" s="16" t="n">
+      <c r="BP95" s="16">
         <v>45853</v>
       </c>
       <c r="BQ95" s="27" t="str">
@@ -22184,7 +22304,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=71&amp;nopid=5520030121</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -22218,10 +22338,10 @@
       <c r="K96" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L96" s="16" t="n">
+      <c r="L96" s="16">
         <v>43423</v>
       </c>
-      <c r="M96" s="16" t="n">
+      <c r="M96" s="16">
         <v>46023</v>
       </c>
       <c r="N96" s="6" t="s">
@@ -22272,7 +22392,7 @@
       <c r="AC96" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD96" s="16" t="n">
+      <c r="AD96" s="16">
         <v>43423</v>
       </c>
       <c r="AE96" s="6" t="s">
@@ -22362,7 +22482,7 @@
       <c r="BM96" s="25"/>
       <c r="BN96" s="25"/>
       <c r="BO96" s="25"/>
-      <c r="BP96" s="16" t="n">
+      <c r="BP96" s="16">
         <v>45820</v>
       </c>
       <c r="BQ96" s="27" t="str">
@@ -22370,7 +22490,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=15&amp;nopid=5561005631</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -22404,10 +22524,10 @@
       <c r="K97" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L97" s="16" t="n">
+      <c r="L97" s="16">
         <v>44602</v>
       </c>
-      <c r="M97" s="16" t="n">
+      <c r="M97" s="16">
         <v>45992</v>
       </c>
       <c r="N97" s="6" t="s">
@@ -22458,7 +22578,7 @@
       <c r="AC97" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD97" s="16" t="n">
+      <c r="AD97" s="16">
         <v>45743</v>
       </c>
       <c r="AE97" s="6" t="s">
@@ -22546,7 +22666,7 @@
       <c r="BM97" s="25"/>
       <c r="BN97" s="25"/>
       <c r="BO97" s="25"/>
-      <c r="BP97" s="16" t="n">
+      <c r="BP97" s="16">
         <v>45834</v>
       </c>
       <c r="BQ97" s="27" t="str">
@@ -22554,7 +22674,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=1&amp;nopid=9092134101</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -22588,10 +22708,10 @@
       <c r="K98" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L98" s="16" t="n">
+      <c r="L98" s="16">
         <v>44223</v>
       </c>
-      <c r="M98" s="16" t="n">
+      <c r="M98" s="16">
         <v>46000</v>
       </c>
       <c r="N98" s="6" t="s">
@@ -22642,7 +22762,7 @@
       <c r="AC98" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD98" s="16" t="n">
+      <c r="AD98" s="16">
         <v>44223</v>
       </c>
       <c r="AE98" s="6" t="s">
@@ -22730,7 +22850,7 @@
       <c r="BM98" s="25"/>
       <c r="BN98" s="25"/>
       <c r="BO98" s="25"/>
-      <c r="BP98" s="16" t="n">
+      <c r="BP98" s="16">
         <v>45806</v>
       </c>
       <c r="BQ98" s="27" t="str">
@@ -22738,7 +22858,7 @@
         <v>https://organic.ams.usda.gov/Integrity//Certificate.aspx?cid=32&amp;nopid=2230008280</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:69" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -22772,16 +22892,16 @@
       <c r="K99" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="L99" s="16" t="n">
+      <c r="L99" s="16">
         <v>41160</v>
       </c>
-      <c r="M99" s="16" t="n">
+      <c r="M99" s="16">
         <v>45512</v>
       </c>
       <c r="N99" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="O99" s="16" t="n">
+      <c r="O99" s="16">
         <v>41160</v>
       </c>
       <c r="P99" s="6" t="s">
@@ -22826,10 +22946,10 @@
       <c r="AC99" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AD99" s="16" t="n">
+      <c r="AD99" s="16">
         <v>41160</v>
       </c>
-      <c r="AE99" s="6" t="s">
+      <c r="AE99" s="45" t="s">
         <v>663</v>
       </c>
       <c r="AF99" s="6" t="s">
@@ -22898,7 +23018,7 @@
       <c r="BA99" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BB99" s="23" t="n">
+      <c r="BB99" s="23">
         <v>507</v>
       </c>
       <c r="BC99" s="25"/>
@@ -22916,7 +23036,7 @@
       <c r="BO99" s="25" t="s">
         <v>1363</v>
       </c>
-      <c r="BP99" s="16" t="n">
+      <c r="BP99" s="16">
         <v>45700</v>
       </c>
       <c r="BQ99" s="27" t="str">
@@ -22925,11 +23045,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1" pivot="false">
-    <cfRule priority="0" type="colorScale">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="colorScale" priority="0">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo val="50" type="percentile"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
@@ -22937,6 +23057,4276 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.6999999999999998" right="0.6999999999999998" top="0.75"/>
+  <pageMargins left="0.69999999999999984" right="0.69999999999999984" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B8FF1-7B0D-40BF-B1B6-5A92938312A1}">
+  <dimension ref="A1:R104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B2" s="33">
+        <f>COLUMNS(Operations!A1:'Operations'!BQ1)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B3" s="33">
+        <f>COUNTA(Operations!A1:'Operations'!BQ1)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B4" s="33">
+        <f>99-3</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <f>(IF(Operations!E4="","",IF(COUNTIF(Operations!E4:E99,Operations!E4)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(ISBLANK(Operations!E4), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(Operations!F4="", "", IF(COUNTIF(Operations!F4:'Operations'!F99, Operations!F4)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(ISBLANK(Operations!F4), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(Operations!K4="", "MISSING VALUE", IF(Operations!K4="Certified", "Valid", IF(OR(Operations!K4="Surrendered",Operations!K4="Suspended", Operations!K4="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(Operations!AC4="", "MISSING VALUE", IF(Operations!AC4="Certified", "Valid", IF(OR(Operations!AC4="Surrendered", Operations!AC4="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M8" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE4),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE4)),
+ISNUMBER(SEARCH("tea", Operations!AE4)),
+ISNUMBER(SEARCH("coffee", Operations!AE4)),
+ISNUMBER(SEARCH("kombucha", Operations!AE4)),
+ISNUMBER(SEARCH("juice", Operations!AE4))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <f>(IF(Operations!E5="","",IF(COUNTIF(Operations!E5:E100,Operations!E5)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(ISBLANK(Operations!E5), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(Operations!F5="", "", IF(COUNTIF(Operations!F5:'Operations'!F100, Operations!F5)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISBLANK(Operations!F5), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(Operations!K5="", "MISSING VALUE", IF(Operations!K5="Certified", "Valid", IF(OR(Operations!K5="Surrendered",Operations!K5="Suspended", Operations!K5="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(Operations!AC5="", "MISSING VALUE", IF(Operations!AC5="Certified", "Valid", IF(OR(Operations!AC5="Surrendered", Operations!AC5="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M9" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE5),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE5)),
+ISNUMBER(SEARCH("tea", Operations!AE5)),
+ISNUMBER(SEARCH("coffee", Operations!AE5)),
+ISNUMBER(SEARCH("kombucha", Operations!AE5)),
+ISNUMBER(SEARCH("juice", Operations!AE5))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <f>(IF(Operations!E6="","",IF(COUNTIF(Operations!E6:E101,Operations!E6)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(ISBLANK(Operations!E6), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(Operations!F6="", "", IF(COUNTIF(Operations!F6:'Operations'!F101, Operations!F6)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(ISBLANK(Operations!F6), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(Operations!K6="", "MISSING VALUE", IF(Operations!K6="Certified", "Valid", IF(OR(Operations!K6="Surrendered",Operations!K6="Suspended", Operations!K6="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(Operations!AC6="", "MISSING VALUE", IF(Operations!AC6="Certified", "Valid", IF(OR(Operations!AC6="Surrendered", Operations!AC6="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M10" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE6),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE6)),
+ISNUMBER(SEARCH("tea", Operations!AE6)),
+ISNUMBER(SEARCH("coffee", Operations!AE6)),
+ISNUMBER(SEARCH("kombucha", Operations!AE6)),
+ISNUMBER(SEARCH("juice", Operations!AE6))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f>(IF(Operations!E7="","",IF(COUNTIF(Operations!E7:E102,Operations!E7)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(ISBLANK(Operations!E7), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(Operations!F7="", "", IF(COUNTIF(Operations!F7:'Operations'!F102, Operations!F7)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(ISBLANK(Operations!F7), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(Operations!K7="", "MISSING VALUE", IF(Operations!K7="Certified", "Valid", IF(OR(Operations!K7="Surrendered",Operations!K7="Suspended", Operations!K7="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(Operations!AC7="", "MISSING VALUE", IF(Operations!AC7="Certified", "Valid", IF(OR(Operations!AC7="Surrendered", Operations!AC7="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M11" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE7),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE7)),
+ISNUMBER(SEARCH("tea", Operations!AE7)),
+ISNUMBER(SEARCH("coffee", Operations!AE7)),
+ISNUMBER(SEARCH("kombucha", Operations!AE7)),
+ISNUMBER(SEARCH("juice", Operations!AE7))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <f>(IF(Operations!E8="","",IF(COUNTIF(Operations!E8:E103,Operations!E8)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(ISBLANK(Operations!E8), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(Operations!F8="", "", IF(COUNTIF(Operations!F8:'Operations'!F103, Operations!F8)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(ISBLANK(Operations!F8), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(Operations!K8="", "MISSING VALUE", IF(Operations!K8="Certified", "Valid", IF(OR(Operations!K8="Surrendered",Operations!K8="Suspended", Operations!K8="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(Operations!AC8="", "MISSING VALUE", IF(Operations!AC8="Certified", "Valid", IF(OR(Operations!AC8="Surrendered", Operations!AC8="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M12" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE8),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE8)),
+ISNUMBER(SEARCH("tea", Operations!AE8)),
+ISNUMBER(SEARCH("coffee", Operations!AE8)),
+ISNUMBER(SEARCH("kombucha", Operations!AE8)),
+ISNUMBER(SEARCH("juice", Operations!AE8))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <f>(IF(Operations!E9="","",IF(COUNTIF(Operations!E9:E104,Operations!E9)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(ISBLANK(Operations!E9), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(Operations!F9="", "", IF(COUNTIF(Operations!F9:'Operations'!F104, Operations!F9)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISBLANK(Operations!F9), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(Operations!K9="", "MISSING VALUE", IF(Operations!K9="Certified", "Valid", IF(OR(Operations!K9="Surrendered",Operations!K9="Suspended", Operations!K9="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(Operations!AC9="", "MISSING VALUE", IF(Operations!AC9="Certified", "Valid", IF(OR(Operations!AC9="Surrendered", Operations!AC9="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M13" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE9),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE9)),
+ISNUMBER(SEARCH("tea", Operations!AE9)),
+ISNUMBER(SEARCH("coffee", Operations!AE9)),
+ISNUMBER(SEARCH("kombucha", Operations!AE9)),
+ISNUMBER(SEARCH("juice", Operations!AE9))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <f>(IF(Operations!E10="","",IF(COUNTIF(Operations!E10:E105,Operations!E10)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(ISBLANK(Operations!E10), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(Operations!F10="", "", IF(COUNTIF(Operations!F10:'Operations'!F105, Operations!F10)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISBLANK(Operations!F10), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(Operations!K10="", "MISSING VALUE", IF(Operations!K10="Certified", "Valid", IF(OR(Operations!K10="Surrendered",Operations!K10="Suspended", Operations!K10="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(Operations!AC10="", "MISSING VALUE", IF(Operations!AC10="Certified", "Valid", IF(OR(Operations!AC10="Surrendered", Operations!AC10="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M14" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE10),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE10)),
+ISNUMBER(SEARCH("tea", Operations!AE10)),
+ISNUMBER(SEARCH("coffee", Operations!AE10)),
+ISNUMBER(SEARCH("kombucha", Operations!AE10)),
+ISNUMBER(SEARCH("juice", Operations!AE10))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f>(IF(Operations!E11="","",IF(COUNTIF(Operations!E11:E106,Operations!E11)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(ISBLANK(Operations!E11), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(Operations!F11="", "", IF(COUNTIF(Operations!F11:'Operations'!F106, Operations!F11)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(ISBLANK(Operations!F11), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(Operations!K11="", "MISSING VALUE", IF(Operations!K11="Certified", "Valid", IF(OR(Operations!K11="Surrendered",Operations!K11="Suspended", Operations!K11="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(Operations!AC11="", "MISSING VALUE", IF(Operations!AC11="Certified", "Valid", IF(OR(Operations!AC11="Surrendered", Operations!AC11="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M15" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE11),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE11)),
+ISNUMBER(SEARCH("tea", Operations!AE11)),
+ISNUMBER(SEARCH("coffee", Operations!AE11)),
+ISNUMBER(SEARCH("kombucha", Operations!AE11)),
+ISNUMBER(SEARCH("juice", Operations!AE11))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <f>(IF(Operations!E12="","",IF(COUNTIF(Operations!E12:E107,Operations!E12)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(ISBLANK(Operations!E12), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(Operations!F12="", "", IF(COUNTIF(Operations!F12:'Operations'!F107, Operations!F12)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(ISBLANK(Operations!F12), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(Operations!K12="", "MISSING VALUE", IF(Operations!K12="Certified", "Valid", IF(OR(Operations!K12="Surrendered",Operations!K12="Suspended", Operations!K12="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(Operations!AC12="", "MISSING VALUE", IF(Operations!AC12="Certified", "Valid", IF(OR(Operations!AC12="Surrendered", Operations!AC12="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M16" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE12),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE12)),
+ISNUMBER(SEARCH("tea", Operations!AE12)),
+ISNUMBER(SEARCH("coffee", Operations!AE12)),
+ISNUMBER(SEARCH("kombucha", Operations!AE12)),
+ISNUMBER(SEARCH("juice", Operations!AE12))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <f>(IF(Operations!E13="","",IF(COUNTIF(Operations!E13:E108,Operations!E13)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(ISBLANK(Operations!E13), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(Operations!F13="", "", IF(COUNTIF(Operations!F13:'Operations'!F108, Operations!F13)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(ISBLANK(Operations!F13), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(Operations!K13="", "MISSING VALUE", IF(Operations!K13="Certified", "Valid", IF(OR(Operations!K13="Surrendered",Operations!K13="Suspended", Operations!K13="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(Operations!AC13="", "MISSING VALUE", IF(Operations!AC13="Certified", "Valid", IF(OR(Operations!AC13="Surrendered", Operations!AC13="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M17" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE13),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE13)),
+ISNUMBER(SEARCH("tea", Operations!AE13)),
+ISNUMBER(SEARCH("coffee", Operations!AE13)),
+ISNUMBER(SEARCH("kombucha", Operations!AE13)),
+ISNUMBER(SEARCH("juice", Operations!AE13))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <f>(IF(Operations!E14="","",IF(COUNTIF(Operations!E14:E109,Operations!E14)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(ISBLANK(Operations!E14), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(Operations!F14="", "", IF(COUNTIF(Operations!F14:'Operations'!F109, Operations!F14)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(ISBLANK(Operations!F14), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(Operations!K14="", "MISSING VALUE", IF(Operations!K14="Certified", "Valid", IF(OR(Operations!K14="Surrendered",Operations!K14="Suspended", Operations!K14="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(Operations!AC14="", "MISSING VALUE", IF(Operations!AC14="Certified", "Valid", IF(OR(Operations!AC14="Surrendered", Operations!AC14="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M18" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE14),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE14)),
+ISNUMBER(SEARCH("tea", Operations!AE14)),
+ISNUMBER(SEARCH("coffee", Operations!AE14)),
+ISNUMBER(SEARCH("kombucha", Operations!AE14)),
+ISNUMBER(SEARCH("juice", Operations!AE14))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <f>(IF(Operations!E15="","",IF(COUNTIF(Operations!E15:E110,Operations!E15)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(ISBLANK(Operations!E15), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(Operations!F15="", "", IF(COUNTIF(Operations!F15:'Operations'!F110, Operations!F15)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(ISBLANK(Operations!F15), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(Operations!K15="", "MISSING VALUE", IF(Operations!K15="Certified", "Valid", IF(OR(Operations!K15="Surrendered",Operations!K15="Suspended", Operations!K15="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(Operations!AC15="", "MISSING VALUE", IF(Operations!AC15="Certified", "Valid", IF(OR(Operations!AC15="Surrendered", Operations!AC15="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M19" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE15),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE15)),
+ISNUMBER(SEARCH("tea", Operations!AE15)),
+ISNUMBER(SEARCH("coffee", Operations!AE15)),
+ISNUMBER(SEARCH("kombucha", Operations!AE15)),
+ISNUMBER(SEARCH("juice", Operations!AE15))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <f>(IF(Operations!E16="","",IF(COUNTIF(Operations!E16:E111,Operations!E16)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(ISBLANK(Operations!E16), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(Operations!F16="", "", IF(COUNTIF(Operations!F16:'Operations'!F111, Operations!F16)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(ISBLANK(Operations!F16), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(Operations!K16="", "MISSING VALUE", IF(Operations!K16="Certified", "Valid", IF(OR(Operations!K16="Surrendered",Operations!K16="Suspended", Operations!K16="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(Operations!AC16="", "MISSING VALUE", IF(Operations!AC16="Certified", "Valid", IF(OR(Operations!AC16="Surrendered", Operations!AC16="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M20" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE16),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE16)),
+ISNUMBER(SEARCH("tea", Operations!AE16)),
+ISNUMBER(SEARCH("coffee", Operations!AE16)),
+ISNUMBER(SEARCH("kombucha", Operations!AE16)),
+ISNUMBER(SEARCH("juice", Operations!AE16))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <f>(IF(Operations!E17="","",IF(COUNTIF(Operations!E17:E112,Operations!E17)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(ISBLANK(Operations!E17), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(Operations!F17="", "", IF(COUNTIF(Operations!F17:'Operations'!F112, Operations!F17)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(ISBLANK(Operations!F17), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(Operations!K17="", "MISSING VALUE", IF(Operations!K17="Certified", "Valid", IF(OR(Operations!K17="Surrendered",Operations!K17="Suspended", Operations!K17="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(Operations!AC17="", "MISSING VALUE", IF(Operations!AC17="Certified", "Valid", IF(OR(Operations!AC17="Surrendered", Operations!AC17="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M21" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE17),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE17)),
+ISNUMBER(SEARCH("tea", Operations!AE17)),
+ISNUMBER(SEARCH("coffee", Operations!AE17)),
+ISNUMBER(SEARCH("kombucha", Operations!AE17)),
+ISNUMBER(SEARCH("juice", Operations!AE17))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f>(IF(Operations!E18="","",IF(COUNTIF(Operations!E18:E113,Operations!E18)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(ISBLANK(Operations!E18), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(Operations!F18="", "", IF(COUNTIF(Operations!F18:'Operations'!F113, Operations!F18)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(ISBLANK(Operations!F18), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Operations!K18="", "MISSING VALUE", IF(Operations!K18="Certified", "Valid", IF(OR(Operations!K18="Surrendered",Operations!K18="Suspended", Operations!K18="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(Operations!AC18="", "MISSING VALUE", IF(Operations!AC18="Certified", "Valid", IF(OR(Operations!AC18="Surrendered", Operations!AC18="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M22" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE18),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE18)),
+ISNUMBER(SEARCH("tea", Operations!AE18)),
+ISNUMBER(SEARCH("coffee", Operations!AE18)),
+ISNUMBER(SEARCH("kombucha", Operations!AE18)),
+ISNUMBER(SEARCH("juice", Operations!AE18))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f>(IF(Operations!E19="","",IF(COUNTIF(Operations!E19:E114,Operations!E19)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(ISBLANK(Operations!E19), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Operations!F19="", "", IF(COUNTIF(Operations!F19:'Operations'!F114, Operations!F19)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(ISBLANK(Operations!F19), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Operations!K19="", "MISSING VALUE", IF(Operations!K19="Certified", "Valid", IF(OR(Operations!K19="Surrendered",Operations!K19="Suspended", Operations!K19="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(Operations!AC19="", "MISSING VALUE", IF(Operations!AC19="Certified", "Valid", IF(OR(Operations!AC19="Surrendered", Operations!AC19="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M23" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE19),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE19)),
+ISNUMBER(SEARCH("tea", Operations!AE19)),
+ISNUMBER(SEARCH("coffee", Operations!AE19)),
+ISNUMBER(SEARCH("kombucha", Operations!AE19)),
+ISNUMBER(SEARCH("juice", Operations!AE19))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" t="str">
+        <f>(IF(Operations!E20="","",IF(COUNTIF(Operations!E20:E115,Operations!E20)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(ISBLANK(Operations!E20), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(Operations!F20="", "", IF(COUNTIF(Operations!F20:'Operations'!F115, Operations!F20)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(ISBLANK(Operations!F20), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Operations!K20="", "MISSING VALUE", IF(Operations!K20="Certified", "Valid", IF(OR(Operations!K20="Surrendered",Operations!K20="Suspended", Operations!K20="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(Operations!AC20="", "MISSING VALUE", IF(Operations!AC20="Certified", "Valid", IF(OR(Operations!AC20="Surrendered", Operations!AC20="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M24" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE20),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE20)),
+ISNUMBER(SEARCH("tea", Operations!AE20)),
+ISNUMBER(SEARCH("coffee", Operations!AE20)),
+ISNUMBER(SEARCH("kombucha", Operations!AE20)),
+ISNUMBER(SEARCH("juice", Operations!AE20))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <f>(IF(Operations!E21="","",IF(COUNTIF(Operations!E21:E116,Operations!E21)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(ISBLANK(Operations!E21), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(Operations!F21="", "", IF(COUNTIF(Operations!F21:'Operations'!F116, Operations!F21)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(ISBLANK(Operations!F21), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(Operations!K21="", "MISSING VALUE", IF(Operations!K21="Certified", "Valid", IF(OR(Operations!K21="Surrendered",Operations!K21="Suspended", Operations!K21="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(Operations!AC21="", "MISSING VALUE", IF(Operations!AC21="Certified", "Valid", IF(OR(Operations!AC21="Surrendered", Operations!AC21="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M25" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE21),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE21)),
+ISNUMBER(SEARCH("tea", Operations!AE21)),
+ISNUMBER(SEARCH("coffee", Operations!AE21)),
+ISNUMBER(SEARCH("kombucha", Operations!AE21)),
+ISNUMBER(SEARCH("juice", Operations!AE21))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" t="str">
+        <f>(IF(Operations!E22="","",IF(COUNTIF(Operations!E22:E117,Operations!E22)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(ISBLANK(Operations!E22), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(Operations!F22="", "", IF(COUNTIF(Operations!F22:'Operations'!F117, Operations!F22)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(ISBLANK(Operations!F22), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(Operations!K22="", "MISSING VALUE", IF(Operations!K22="Certified", "Valid", IF(OR(Operations!K22="Surrendered",Operations!K22="Suspended", Operations!K22="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(Operations!AC22="", "MISSING VALUE", IF(Operations!AC22="Certified", "Valid", IF(OR(Operations!AC22="Surrendered", Operations!AC22="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M26" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE22),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE22)),
+ISNUMBER(SEARCH("tea", Operations!AE22)),
+ISNUMBER(SEARCH("coffee", Operations!AE22)),
+ISNUMBER(SEARCH("kombucha", Operations!AE22)),
+ISNUMBER(SEARCH("juice", Operations!AE22))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" t="str">
+        <f>(IF(Operations!E23="","",IF(COUNTIF(Operations!E23:E118,Operations!E23)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(ISBLANK(Operations!E23), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(Operations!F23="", "", IF(COUNTIF(Operations!F23:'Operations'!F118, Operations!F23)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(ISBLANK(Operations!F23), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(Operations!K23="", "MISSING VALUE", IF(Operations!K23="Certified", "Valid", IF(OR(Operations!K23="Surrendered",Operations!K23="Suspended", Operations!K23="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(Operations!AC23="", "MISSING VALUE", IF(Operations!AC23="Certified", "Valid", IF(OR(Operations!AC23="Surrendered", Operations!AC23="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M27" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE23),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE23)),
+ISNUMBER(SEARCH("tea", Operations!AE23)),
+ISNUMBER(SEARCH("coffee", Operations!AE23)),
+ISNUMBER(SEARCH("kombucha", Operations!AE23)),
+ISNUMBER(SEARCH("juice", Operations!AE23))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" t="str">
+        <f>(IF(Operations!E24="","",IF(COUNTIF(Operations!E24:E119,Operations!E24)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(ISBLANK(Operations!E24), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(Operations!F24="", "", IF(COUNTIF(Operations!F24:'Operations'!F119, Operations!F24)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(ISBLANK(Operations!F24), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Operations!K24="", "MISSING VALUE", IF(Operations!K24="Certified", "Valid", IF(OR(Operations!K24="Surrendered",Operations!K24="Suspended", Operations!K24="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(Operations!AC24="", "MISSING VALUE", IF(Operations!AC24="Certified", "Valid", IF(OR(Operations!AC24="Surrendered", Operations!AC24="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M28" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE24),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE24)),
+ISNUMBER(SEARCH("tea", Operations!AE24)),
+ISNUMBER(SEARCH("coffee", Operations!AE24)),
+ISNUMBER(SEARCH("kombucha", Operations!AE24)),
+ISNUMBER(SEARCH("juice", Operations!AE24))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" t="str">
+        <f>(IF(Operations!E25="","",IF(COUNTIF(Operations!E25:E120,Operations!E25)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(ISBLANK(Operations!E25), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(Operations!F25="", "", IF(COUNTIF(Operations!F25:'Operations'!F120, Operations!F25)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(ISBLANK(Operations!F25), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(Operations!K25="", "MISSING VALUE", IF(Operations!K25="Certified", "Valid", IF(OR(Operations!K25="Surrendered",Operations!K25="Suspended", Operations!K25="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(Operations!AC25="", "MISSING VALUE", IF(Operations!AC25="Certified", "Valid", IF(OR(Operations!AC25="Surrendered", Operations!AC25="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M29" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE25),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE25)),
+ISNUMBER(SEARCH("tea", Operations!AE25)),
+ISNUMBER(SEARCH("coffee", Operations!AE25)),
+ISNUMBER(SEARCH("kombucha", Operations!AE25)),
+ISNUMBER(SEARCH("juice", Operations!AE25))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" t="str">
+        <f>(IF(Operations!E26="","",IF(COUNTIF(Operations!E26:E121,Operations!E26)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(ISBLANK(Operations!E26), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(Operations!F26="", "", IF(COUNTIF(Operations!F26:'Operations'!F121, Operations!F26)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(ISBLANK(Operations!F26), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(Operations!K26="", "MISSING VALUE", IF(Operations!K26="Certified", "Valid", IF(OR(Operations!K26="Surrendered",Operations!K26="Suspended", Operations!K26="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J30" t="str">
+        <f>IF(Operations!AC26="", "MISSING VALUE", IF(Operations!AC26="Certified", "Valid", IF(OR(Operations!AC26="Surrendered", Operations!AC26="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M30" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE26),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE26)),
+ISNUMBER(SEARCH("tea", Operations!AE26)),
+ISNUMBER(SEARCH("coffee", Operations!AE26)),
+ISNUMBER(SEARCH("kombucha", Operations!AE26)),
+ISNUMBER(SEARCH("juice", Operations!AE26))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" t="str">
+        <f>(IF(Operations!E27="","",IF(COUNTIF(Operations!E27:E122,Operations!E27)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(ISBLANK(Operations!E27), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(Operations!F27="", "", IF(COUNTIF(Operations!F27:'Operations'!F122, Operations!F27)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(ISBLANK(Operations!F27), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(Operations!K27="", "MISSING VALUE", IF(Operations!K27="Certified", "Valid", IF(OR(Operations!K27="Surrendered",Operations!K27="Suspended", Operations!K27="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(Operations!AC27="", "MISSING VALUE", IF(Operations!AC27="Certified", "Valid", IF(OR(Operations!AC27="Surrendered", Operations!AC27="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M31" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE27),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE27)),
+ISNUMBER(SEARCH("tea", Operations!AE27)),
+ISNUMBER(SEARCH("coffee", Operations!AE27)),
+ISNUMBER(SEARCH("kombucha", Operations!AE27)),
+ISNUMBER(SEARCH("juice", Operations!AE27))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" t="str">
+        <f>(IF(Operations!E28="","",IF(COUNTIF(Operations!E28:E123,Operations!E28)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(ISBLANK(Operations!E28), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(Operations!F28="", "", IF(COUNTIF(Operations!F28:'Operations'!F123, Operations!F28)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(ISBLANK(Operations!F28), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(Operations!K28="", "MISSING VALUE", IF(Operations!K28="Certified", "Valid", IF(OR(Operations!K28="Surrendered",Operations!K28="Suspended", Operations!K28="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(Operations!AC28="", "MISSING VALUE", IF(Operations!AC28="Certified", "Valid", IF(OR(Operations!AC28="Surrendered", Operations!AC28="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M32" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE28),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE28)),
+ISNUMBER(SEARCH("tea", Operations!AE28)),
+ISNUMBER(SEARCH("coffee", Operations!AE28)),
+ISNUMBER(SEARCH("kombucha", Operations!AE28)),
+ISNUMBER(SEARCH("juice", Operations!AE28))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" t="str">
+        <f>(IF(Operations!E29="","",IF(COUNTIF(Operations!E29:E124,Operations!E29)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(ISBLANK(Operations!E29), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(Operations!F29="", "", IF(COUNTIF(Operations!F29:'Operations'!F124, Operations!F29)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(ISBLANK(Operations!F29), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Operations!K29="", "MISSING VALUE", IF(Operations!K29="Certified", "Valid", IF(OR(Operations!K29="Surrendered",Operations!K29="Suspended", Operations!K29="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(Operations!AC29="", "MISSING VALUE", IF(Operations!AC29="Certified", "Valid", IF(OR(Operations!AC29="Surrendered", Operations!AC29="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M33" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE29),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE29)),
+ISNUMBER(SEARCH("tea", Operations!AE29)),
+ISNUMBER(SEARCH("coffee", Operations!AE29)),
+ISNUMBER(SEARCH("kombucha", Operations!AE29)),
+ISNUMBER(SEARCH("juice", Operations!AE29))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" t="str">
+        <f>(IF(Operations!E30="","",IF(COUNTIF(Operations!E30:E125,Operations!E30)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(ISBLANK(Operations!E30), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(Operations!F30="", "", IF(COUNTIF(Operations!F30:'Operations'!F125, Operations!F30)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(ISBLANK(Operations!F30), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Operations!K30="", "MISSING VALUE", IF(Operations!K30="Certified", "Valid", IF(OR(Operations!K30="Surrendered",Operations!K30="Suspended", Operations!K30="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(Operations!AC30="", "MISSING VALUE", IF(Operations!AC30="Certified", "Valid", IF(OR(Operations!AC30="Surrendered", Operations!AC30="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M34" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE30),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE30)),
+ISNUMBER(SEARCH("tea", Operations!AE30)),
+ISNUMBER(SEARCH("coffee", Operations!AE30)),
+ISNUMBER(SEARCH("kombucha", Operations!AE30)),
+ISNUMBER(SEARCH("juice", Operations!AE30))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" t="str">
+        <f>(IF(Operations!E31="","",IF(COUNTIF(Operations!E31:E126,Operations!E31)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(ISBLANK(Operations!E31), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(Operations!F31="", "", IF(COUNTIF(Operations!F31:'Operations'!F126, Operations!F31)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(ISBLANK(Operations!F31), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Operations!K31="", "MISSING VALUE", IF(Operations!K31="Certified", "Valid", IF(OR(Operations!K31="Surrendered",Operations!K31="Suspended", Operations!K31="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(Operations!AC31="", "MISSING VALUE", IF(Operations!AC31="Certified", "Valid", IF(OR(Operations!AC31="Surrendered", Operations!AC31="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M35" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE31),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE31)),
+ISNUMBER(SEARCH("tea", Operations!AE31)),
+ISNUMBER(SEARCH("coffee", Operations!AE31)),
+ISNUMBER(SEARCH("kombucha", Operations!AE31)),
+ISNUMBER(SEARCH("juice", Operations!AE31))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" t="str">
+        <f>(IF(Operations!E32="","",IF(COUNTIF(Operations!E32:E127,Operations!E32)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(ISBLANK(Operations!E32), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(Operations!F32="", "", IF(COUNTIF(Operations!F32:'Operations'!F127, Operations!F32)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(ISBLANK(Operations!F32), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Operations!K32="", "MISSING VALUE", IF(Operations!K32="Certified", "Valid", IF(OR(Operations!K32="Surrendered",Operations!K32="Suspended", Operations!K32="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(Operations!AC32="", "MISSING VALUE", IF(Operations!AC32="Certified", "Valid", IF(OR(Operations!AC32="Surrendered", Operations!AC32="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M36" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE32),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE32)),
+ISNUMBER(SEARCH("tea", Operations!AE32)),
+ISNUMBER(SEARCH("coffee", Operations!AE32)),
+ISNUMBER(SEARCH("kombucha", Operations!AE32)),
+ISNUMBER(SEARCH("juice", Operations!AE32))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" t="str">
+        <f>(IF(Operations!E33="","",IF(COUNTIF(Operations!E33:E128,Operations!E33)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(ISBLANK(Operations!E33), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(Operations!F33="", "", IF(COUNTIF(Operations!F33:'Operations'!F128, Operations!F33)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(ISBLANK(Operations!F33), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Operations!K33="", "MISSING VALUE", IF(Operations!K33="Certified", "Valid", IF(OR(Operations!K33="Surrendered",Operations!K33="Suspended", Operations!K33="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(Operations!AC33="", "MISSING VALUE", IF(Operations!AC33="Certified", "Valid", IF(OR(Operations!AC33="Surrendered", Operations!AC33="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M37" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE33),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE33)),
+ISNUMBER(SEARCH("tea", Operations!AE33)),
+ISNUMBER(SEARCH("coffee", Operations!AE33)),
+ISNUMBER(SEARCH("kombucha", Operations!AE33)),
+ISNUMBER(SEARCH("juice", Operations!AE33))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" t="str">
+        <f>(IF(Operations!E34="","",IF(COUNTIF(Operations!E34:E129,Operations!E34)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(ISBLANK(Operations!E34), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(Operations!F34="", "", IF(COUNTIF(Operations!F34:'Operations'!F129, Operations!F34)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(ISBLANK(Operations!F34), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Operations!K34="", "MISSING VALUE", IF(Operations!K34="Certified", "Valid", IF(OR(Operations!K34="Surrendered",Operations!K34="Suspended", Operations!K34="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(Operations!AC34="", "MISSING VALUE", IF(Operations!AC34="Certified", "Valid", IF(OR(Operations!AC34="Surrendered", Operations!AC34="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M38" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE34),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE34)),
+ISNUMBER(SEARCH("tea", Operations!AE34)),
+ISNUMBER(SEARCH("coffee", Operations!AE34)),
+ISNUMBER(SEARCH("kombucha", Operations!AE34)),
+ISNUMBER(SEARCH("juice", Operations!AE34))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" t="str">
+        <f>(IF(Operations!E35="","",IF(COUNTIF(Operations!E35:E130,Operations!E35)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(ISBLANK(Operations!E35), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(Operations!F35="", "", IF(COUNTIF(Operations!F35:'Operations'!F130, Operations!F35)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(ISBLANK(Operations!F35), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Operations!K35="", "MISSING VALUE", IF(Operations!K35="Certified", "Valid", IF(OR(Operations!K35="Surrendered",Operations!K35="Suspended", Operations!K35="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(Operations!AC35="", "MISSING VALUE", IF(Operations!AC35="Certified", "Valid", IF(OR(Operations!AC35="Surrendered", Operations!AC35="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M39" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE35),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE35)),
+ISNUMBER(SEARCH("tea", Operations!AE35)),
+ISNUMBER(SEARCH("coffee", Operations!AE35)),
+ISNUMBER(SEARCH("kombucha", Operations!AE35)),
+ISNUMBER(SEARCH("juice", Operations!AE35))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" t="str">
+        <f>(IF(Operations!E36="","",IF(COUNTIF(Operations!E36:E131,Operations!E36)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(ISBLANK(Operations!E36), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(Operations!F36="", "", IF(COUNTIF(Operations!F36:'Operations'!F131, Operations!F36)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(ISBLANK(Operations!F36), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Operations!K36="", "MISSING VALUE", IF(Operations!K36="Certified", "Valid", IF(OR(Operations!K36="Surrendered",Operations!K36="Suspended", Operations!K36="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(Operations!AC36="", "MISSING VALUE", IF(Operations!AC36="Certified", "Valid", IF(OR(Operations!AC36="Surrendered", Operations!AC36="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M40" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE36),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE36)),
+ISNUMBER(SEARCH("tea", Operations!AE36)),
+ISNUMBER(SEARCH("coffee", Operations!AE36)),
+ISNUMBER(SEARCH("kombucha", Operations!AE36)),
+ISNUMBER(SEARCH("juice", Operations!AE36))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" t="str">
+        <f>(IF(Operations!E37="","",IF(COUNTIF(Operations!E37:E132,Operations!E37)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(ISBLANK(Operations!E37), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(Operations!F37="", "", IF(COUNTIF(Operations!F37:'Operations'!F132, Operations!F37)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(ISBLANK(Operations!F37), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(Operations!K37="", "MISSING VALUE", IF(Operations!K37="Certified", "Valid", IF(OR(Operations!K37="Surrendered",Operations!K37="Suspended", Operations!K37="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(Operations!AC37="", "MISSING VALUE", IF(Operations!AC37="Certified", "Valid", IF(OR(Operations!AC37="Surrendered", Operations!AC37="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M41" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE37),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE37)),
+ISNUMBER(SEARCH("tea", Operations!AE37)),
+ISNUMBER(SEARCH("coffee", Operations!AE37)),
+ISNUMBER(SEARCH("kombucha", Operations!AE37)),
+ISNUMBER(SEARCH("juice", Operations!AE37))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" t="str">
+        <f>(IF(Operations!E38="","",IF(COUNTIF(Operations!E38:E133,Operations!E38)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(ISBLANK(Operations!E38), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IF(Operations!F38="", "", IF(COUNTIF(Operations!F38:'Operations'!F133, Operations!F38)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(ISBLANK(Operations!F38), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(Operations!K38="", "MISSING VALUE", IF(Operations!K38="Certified", "Valid", IF(OR(Operations!K38="Surrendered",Operations!K38="Suspended", Operations!K38="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(Operations!AC38="", "MISSING VALUE", IF(Operations!AC38="Certified", "Valid", IF(OR(Operations!AC38="Surrendered", Operations!AC38="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M42" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE38),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE38)),
+ISNUMBER(SEARCH("tea", Operations!AE38)),
+ISNUMBER(SEARCH("coffee", Operations!AE38)),
+ISNUMBER(SEARCH("kombucha", Operations!AE38)),
+ISNUMBER(SEARCH("juice", Operations!AE38))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43" t="str">
+        <f>(IF(Operations!E39="","",IF(COUNTIF(Operations!E39:E134,Operations!E39)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(ISBLANK(Operations!E39), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D43" t="str">
+        <f>IF(Operations!F39="", "", IF(COUNTIF(Operations!F39:'Operations'!F134, Operations!F39)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(ISBLANK(Operations!F39), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(Operations!K39="", "MISSING VALUE", IF(Operations!K39="Certified", "Valid", IF(OR(Operations!K39="Surrendered",Operations!K39="Suspended", Operations!K39="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(Operations!AC39="", "MISSING VALUE", IF(Operations!AC39="Certified", "Valid", IF(OR(Operations!AC39="Surrendered", Operations!AC39="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M43" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE39),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE39)),
+ISNUMBER(SEARCH("tea", Operations!AE39)),
+ISNUMBER(SEARCH("coffee", Operations!AE39)),
+ISNUMBER(SEARCH("kombucha", Operations!AE39)),
+ISNUMBER(SEARCH("juice", Operations!AE39))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" t="str">
+        <f>(IF(Operations!E40="","",IF(COUNTIF(Operations!E40:E135,Operations!E40)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(ISBLANK(Operations!E40), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IF(Operations!F40="", "", IF(COUNTIF(Operations!F40:'Operations'!F135, Operations!F40)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E44" t="str">
+        <f>IF(ISBLANK(Operations!F40), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(Operations!K40="", "MISSING VALUE", IF(Operations!K40="Certified", "Valid", IF(OR(Operations!K40="Surrendered",Operations!K40="Suspended", Operations!K40="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(Operations!AC40="", "MISSING VALUE", IF(Operations!AC40="Certified", "Valid", IF(OR(Operations!AC40="Surrendered", Operations!AC40="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M44" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE40),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE40)),
+ISNUMBER(SEARCH("tea", Operations!AE40)),
+ISNUMBER(SEARCH("coffee", Operations!AE40)),
+ISNUMBER(SEARCH("kombucha", Operations!AE40)),
+ISNUMBER(SEARCH("juice", Operations!AE40))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A45" t="str">
+        <f>(IF(Operations!E41="","",IF(COUNTIF(Operations!E41:E136,Operations!E41)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(ISBLANK(Operations!E41), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(Operations!F41="", "", IF(COUNTIF(Operations!F41:'Operations'!F136, Operations!F41)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(ISBLANK(Operations!F41), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(Operations!K41="", "MISSING VALUE", IF(Operations!K41="Certified", "Valid", IF(OR(Operations!K41="Surrendered",Operations!K41="Suspended", Operations!K41="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(Operations!AC41="", "MISSING VALUE", IF(Operations!AC41="Certified", "Valid", IF(OR(Operations!AC41="Surrendered", Operations!AC41="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M45" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE41),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE41)),
+ISNUMBER(SEARCH("tea", Operations!AE41)),
+ISNUMBER(SEARCH("coffee", Operations!AE41)),
+ISNUMBER(SEARCH("kombucha", Operations!AE41)),
+ISNUMBER(SEARCH("juice", Operations!AE41))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" t="str">
+        <f>(IF(Operations!E42="","",IF(COUNTIF(Operations!E42:E137,Operations!E42)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(ISBLANK(Operations!E42), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IF(Operations!F42="", "", IF(COUNTIF(Operations!F42:'Operations'!F137, Operations!F42)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(ISBLANK(Operations!F42), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(Operations!K42="", "MISSING VALUE", IF(Operations!K42="Certified", "Valid", IF(OR(Operations!K42="Surrendered",Operations!K42="Suspended", Operations!K42="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(Operations!AC42="", "MISSING VALUE", IF(Operations!AC42="Certified", "Valid", IF(OR(Operations!AC42="Surrendered", Operations!AC42="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M46" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE42),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE42)),
+ISNUMBER(SEARCH("tea", Operations!AE42)),
+ISNUMBER(SEARCH("coffee", Operations!AE42)),
+ISNUMBER(SEARCH("kombucha", Operations!AE42)),
+ISNUMBER(SEARCH("juice", Operations!AE42))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A47" t="str">
+        <f>(IF(Operations!E43="","",IF(COUNTIF(Operations!E43:E138,Operations!E43)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IF(ISBLANK(Operations!E43), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(Operations!F43="", "", IF(COUNTIF(Operations!F43:'Operations'!F138, Operations!F43)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(ISBLANK(Operations!F43), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(Operations!K43="", "MISSING VALUE", IF(Operations!K43="Certified", "Valid", IF(OR(Operations!K43="Surrendered",Operations!K43="Suspended", Operations!K43="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(Operations!AC43="", "MISSING VALUE", IF(Operations!AC43="Certified", "Valid", IF(OR(Operations!AC43="Surrendered", Operations!AC43="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M47" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE43),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE43)),
+ISNUMBER(SEARCH("tea", Operations!AE43)),
+ISNUMBER(SEARCH("coffee", Operations!AE43)),
+ISNUMBER(SEARCH("kombucha", Operations!AE43)),
+ISNUMBER(SEARCH("juice", Operations!AE43))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A48" t="str">
+        <f>(IF(Operations!E44="","",IF(COUNTIF(Operations!E44:E139,Operations!E44)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IF(ISBLANK(Operations!E44), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(Operations!F44="", "", IF(COUNTIF(Operations!F44:'Operations'!F139, Operations!F44)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(ISBLANK(Operations!F44), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(Operations!K44="", "MISSING VALUE", IF(Operations!K44="Certified", "Valid", IF(OR(Operations!K44="Surrendered",Operations!K44="Suspended", Operations!K44="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(Operations!AC44="", "MISSING VALUE", IF(Operations!AC44="Certified", "Valid", IF(OR(Operations!AC44="Surrendered", Operations!AC44="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M48" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE44),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE44)),
+ISNUMBER(SEARCH("tea", Operations!AE44)),
+ISNUMBER(SEARCH("coffee", Operations!AE44)),
+ISNUMBER(SEARCH("kombucha", Operations!AE44)),
+ISNUMBER(SEARCH("juice", Operations!AE44))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" t="str">
+        <f>(IF(Operations!E45="","",IF(COUNTIF(Operations!E45:E140,Operations!E45)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IF(ISBLANK(Operations!E45), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(Operations!F45="", "", IF(COUNTIF(Operations!F45:'Operations'!F140, Operations!F45)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(ISBLANK(Operations!F45), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(Operations!K45="", "MISSING VALUE", IF(Operations!K45="Certified", "Valid", IF(OR(Operations!K45="Surrendered",Operations!K45="Suspended", Operations!K45="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(Operations!AC45="", "MISSING VALUE", IF(Operations!AC45="Certified", "Valid", IF(OR(Operations!AC45="Surrendered", Operations!AC45="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M49" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE45),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE45)),
+ISNUMBER(SEARCH("tea", Operations!AE45)),
+ISNUMBER(SEARCH("coffee", Operations!AE45)),
+ISNUMBER(SEARCH("kombucha", Operations!AE45)),
+ISNUMBER(SEARCH("juice", Operations!AE45))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" t="str">
+        <f>(IF(Operations!E46="","",IF(COUNTIF(Operations!E46:E141,Operations!E46)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IF(ISBLANK(Operations!E46), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(Operations!F46="", "", IF(COUNTIF(Operations!F46:'Operations'!F141, Operations!F46)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(ISBLANK(Operations!F46), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G50" t="str">
+        <f>IF(Operations!K46="", "MISSING VALUE", IF(Operations!K46="Certified", "Valid", IF(OR(Operations!K46="Surrendered",Operations!K46="Suspended", Operations!K46="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J50" t="str">
+        <f>IF(Operations!AC46="", "MISSING VALUE", IF(Operations!AC46="Certified", "Valid", IF(OR(Operations!AC46="Surrendered", Operations!AC46="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M50" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE46),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE46)),
+ISNUMBER(SEARCH("tea", Operations!AE46)),
+ISNUMBER(SEARCH("coffee", Operations!AE46)),
+ISNUMBER(SEARCH("kombucha", Operations!AE46)),
+ISNUMBER(SEARCH("juice", Operations!AE46))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A51" t="str">
+        <f>(IF(Operations!E47="","",IF(COUNTIF(Operations!E47:E142,Operations!E47)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IF(ISBLANK(Operations!E47), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IF(Operations!F47="", "", IF(COUNTIF(Operations!F47:'Operations'!F142, Operations!F47)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(ISBLANK(Operations!F47), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G51" t="str">
+        <f>IF(Operations!K47="", "MISSING VALUE", IF(Operations!K47="Certified", "Valid", IF(OR(Operations!K47="Surrendered",Operations!K47="Suspended", Operations!K47="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J51" t="str">
+        <f>IF(Operations!AC47="", "MISSING VALUE", IF(Operations!AC47="Certified", "Valid", IF(OR(Operations!AC47="Surrendered", Operations!AC47="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M51" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE47),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE47)),
+ISNUMBER(SEARCH("tea", Operations!AE47)),
+ISNUMBER(SEARCH("coffee", Operations!AE47)),
+ISNUMBER(SEARCH("kombucha", Operations!AE47)),
+ISNUMBER(SEARCH("juice", Operations!AE47))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A52" t="str">
+        <f>(IF(Operations!E48="","",IF(COUNTIF(Operations!E48:E143,Operations!E48)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IF(ISBLANK(Operations!E48), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IF(Operations!F48="", "", IF(COUNTIF(Operations!F48:'Operations'!F143, Operations!F48)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(ISBLANK(Operations!F48), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G52" t="str">
+        <f>IF(Operations!K48="", "MISSING VALUE", IF(Operations!K48="Certified", "Valid", IF(OR(Operations!K48="Surrendered",Operations!K48="Suspended", Operations!K48="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(Operations!AC48="", "MISSING VALUE", IF(Operations!AC48="Certified", "Valid", IF(OR(Operations!AC48="Surrendered", Operations!AC48="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M52" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE48),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE48)),
+ISNUMBER(SEARCH("tea", Operations!AE48)),
+ISNUMBER(SEARCH("coffee", Operations!AE48)),
+ISNUMBER(SEARCH("kombucha", Operations!AE48)),
+ISNUMBER(SEARCH("juice", Operations!AE48))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" t="str">
+        <f>(IF(Operations!E49="","",IF(COUNTIF(Operations!E49:E144,Operations!E49)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IF(ISBLANK(Operations!E49), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IF(Operations!F49="", "", IF(COUNTIF(Operations!F49:'Operations'!F144, Operations!F49)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(ISBLANK(Operations!F49), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G53" t="str">
+        <f>IF(Operations!K49="", "MISSING VALUE", IF(Operations!K49="Certified", "Valid", IF(OR(Operations!K49="Surrendered",Operations!K49="Suspended", Operations!K49="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(Operations!AC49="", "MISSING VALUE", IF(Operations!AC49="Certified", "Valid", IF(OR(Operations!AC49="Surrendered", Operations!AC49="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M53" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE49),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE49)),
+ISNUMBER(SEARCH("tea", Operations!AE49)),
+ISNUMBER(SEARCH("coffee", Operations!AE49)),
+ISNUMBER(SEARCH("kombucha", Operations!AE49)),
+ISNUMBER(SEARCH("juice", Operations!AE49))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54" t="str">
+        <f>(IF(Operations!E50="","",IF(COUNTIF(Operations!E50:E145,Operations!E50)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IF(ISBLANK(Operations!E50), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IF(Operations!F50="", "", IF(COUNTIF(Operations!F50:'Operations'!F145, Operations!F50)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(ISBLANK(Operations!F50), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G54" t="str">
+        <f>IF(Operations!K50="", "MISSING VALUE", IF(Operations!K50="Certified", "Valid", IF(OR(Operations!K50="Surrendered",Operations!K50="Suspended", Operations!K50="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J54" t="str">
+        <f>IF(Operations!AC50="", "MISSING VALUE", IF(Operations!AC50="Certified", "Valid", IF(OR(Operations!AC50="Surrendered", Operations!AC50="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M54" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE50),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE50)),
+ISNUMBER(SEARCH("tea", Operations!AE50)),
+ISNUMBER(SEARCH("coffee", Operations!AE50)),
+ISNUMBER(SEARCH("kombucha", Operations!AE50)),
+ISNUMBER(SEARCH("juice", Operations!AE50))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55" t="str">
+        <f>(IF(Operations!E51="","",IF(COUNTIF(Operations!E51:E146,Operations!E51)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IF(ISBLANK(Operations!E51), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IF(Operations!F51="", "", IF(COUNTIF(Operations!F51:'Operations'!F146, Operations!F51)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E55" t="str">
+        <f>IF(ISBLANK(Operations!F51), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G55" t="str">
+        <f>IF(Operations!K51="", "MISSING VALUE", IF(Operations!K51="Certified", "Valid", IF(OR(Operations!K51="Surrendered",Operations!K51="Suspended", Operations!K51="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J55" t="str">
+        <f>IF(Operations!AC51="", "MISSING VALUE", IF(Operations!AC51="Certified", "Valid", IF(OR(Operations!AC51="Surrendered", Operations!AC51="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M55" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE51),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE51)),
+ISNUMBER(SEARCH("tea", Operations!AE51)),
+ISNUMBER(SEARCH("coffee", Operations!AE51)),
+ISNUMBER(SEARCH("kombucha", Operations!AE51)),
+ISNUMBER(SEARCH("juice", Operations!AE51))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" t="str">
+        <f>(IF(Operations!E52="","",IF(COUNTIF(Operations!E52:E147,Operations!E52)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IF(ISBLANK(Operations!E52), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IF(Operations!F52="", "", IF(COUNTIF(Operations!F52:'Operations'!F147, Operations!F52)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E56" t="str">
+        <f>IF(ISBLANK(Operations!F52), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G56" t="str">
+        <f>IF(Operations!K52="", "MISSING VALUE", IF(Operations!K52="Certified", "Valid", IF(OR(Operations!K52="Surrendered",Operations!K52="Suspended", Operations!K52="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J56" t="str">
+        <f>IF(Operations!AC52="", "MISSING VALUE", IF(Operations!AC52="Certified", "Valid", IF(OR(Operations!AC52="Surrendered", Operations!AC52="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M56" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE52),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE52)),
+ISNUMBER(SEARCH("tea", Operations!AE52)),
+ISNUMBER(SEARCH("coffee", Operations!AE52)),
+ISNUMBER(SEARCH("kombucha", Operations!AE52)),
+ISNUMBER(SEARCH("juice", Operations!AE52))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A57" t="str">
+        <f>(IF(Operations!E53="","",IF(COUNTIF(Operations!E53:E148,Operations!E53)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IF(ISBLANK(Operations!E53), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IF(Operations!F53="", "", IF(COUNTIF(Operations!F53:'Operations'!F148, Operations!F53)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF(ISBLANK(Operations!F53), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(Operations!K53="", "MISSING VALUE", IF(Operations!K53="Certified", "Valid", IF(OR(Operations!K53="Surrendered",Operations!K53="Suspended", Operations!K53="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J57" t="str">
+        <f>IF(Operations!AC53="", "MISSING VALUE", IF(Operations!AC53="Certified", "Valid", IF(OR(Operations!AC53="Surrendered", Operations!AC53="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M57" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE53),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE53)),
+ISNUMBER(SEARCH("tea", Operations!AE53)),
+ISNUMBER(SEARCH("coffee", Operations!AE53)),
+ISNUMBER(SEARCH("kombucha", Operations!AE53)),
+ISNUMBER(SEARCH("juice", Operations!AE53))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" t="str">
+        <f>(IF(Operations!E54="","",IF(COUNTIF(Operations!E54:E149,Operations!E54)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IF(ISBLANK(Operations!E54), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(Operations!F54="", "", IF(COUNTIF(Operations!F54:'Operations'!F149, Operations!F54)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(ISBLANK(Operations!F54), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(Operations!K54="", "MISSING VALUE", IF(Operations!K54="Certified", "Valid", IF(OR(Operations!K54="Surrendered",Operations!K54="Suspended", Operations!K54="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J58" t="str">
+        <f>IF(Operations!AC54="", "MISSING VALUE", IF(Operations!AC54="Certified", "Valid", IF(OR(Operations!AC54="Surrendered", Operations!AC54="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M58" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE54),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE54)),
+ISNUMBER(SEARCH("tea", Operations!AE54)),
+ISNUMBER(SEARCH("coffee", Operations!AE54)),
+ISNUMBER(SEARCH("kombucha", Operations!AE54)),
+ISNUMBER(SEARCH("juice", Operations!AE54))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59" t="str">
+        <f>(IF(Operations!E55="","",IF(COUNTIF(Operations!E55:E150,Operations!E55)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IF(ISBLANK(Operations!E55), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(Operations!F55="", "", IF(COUNTIF(Operations!F55:'Operations'!F150, Operations!F55)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(ISBLANK(Operations!F55), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G59" t="str">
+        <f>IF(Operations!K55="", "MISSING VALUE", IF(Operations!K55="Certified", "Valid", IF(OR(Operations!K55="Surrendered",Operations!K55="Suspended", Operations!K55="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(Operations!AC55="", "MISSING VALUE", IF(Operations!AC55="Certified", "Valid", IF(OR(Operations!AC55="Surrendered", Operations!AC55="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M59" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE55),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE55)),
+ISNUMBER(SEARCH("tea", Operations!AE55)),
+ISNUMBER(SEARCH("coffee", Operations!AE55)),
+ISNUMBER(SEARCH("kombucha", Operations!AE55)),
+ISNUMBER(SEARCH("juice", Operations!AE55))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A60" t="str">
+        <f>(IF(Operations!E56="","",IF(COUNTIF(Operations!E56:E151,Operations!E56)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B60" t="str">
+        <f>IF(ISBLANK(Operations!E56), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(Operations!F56="", "", IF(COUNTIF(Operations!F56:'Operations'!F151, Operations!F56)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(ISBLANK(Operations!F56), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G60" t="str">
+        <f>IF(Operations!K56="", "MISSING VALUE", IF(Operations!K56="Certified", "Valid", IF(OR(Operations!K56="Surrendered",Operations!K56="Suspended", Operations!K56="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J60" t="str">
+        <f>IF(Operations!AC56="", "MISSING VALUE", IF(Operations!AC56="Certified", "Valid", IF(OR(Operations!AC56="Surrendered", Operations!AC56="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M60" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE56),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE56)),
+ISNUMBER(SEARCH("tea", Operations!AE56)),
+ISNUMBER(SEARCH("coffee", Operations!AE56)),
+ISNUMBER(SEARCH("kombucha", Operations!AE56)),
+ISNUMBER(SEARCH("juice", Operations!AE56))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A61" t="str">
+        <f>(IF(Operations!E57="","",IF(COUNTIF(Operations!E57:E152,Operations!E57)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IF(ISBLANK(Operations!E57), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IF(Operations!F57="", "", IF(COUNTIF(Operations!F57:'Operations'!F152, Operations!F57)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E61" t="str">
+        <f>IF(ISBLANK(Operations!F57), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G61" t="str">
+        <f>IF(Operations!K57="", "MISSING VALUE", IF(Operations!K57="Certified", "Valid", IF(OR(Operations!K57="Surrendered",Operations!K57="Suspended", Operations!K57="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J61" t="str">
+        <f>IF(Operations!AC57="", "MISSING VALUE", IF(Operations!AC57="Certified", "Valid", IF(OR(Operations!AC57="Surrendered", Operations!AC57="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M61" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE57),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE57)),
+ISNUMBER(SEARCH("tea", Operations!AE57)),
+ISNUMBER(SEARCH("coffee", Operations!AE57)),
+ISNUMBER(SEARCH("kombucha", Operations!AE57)),
+ISNUMBER(SEARCH("juice", Operations!AE57))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A62" t="str">
+        <f>(IF(Operations!E58="","",IF(COUNTIF(Operations!E58:E153,Operations!E58)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IF(ISBLANK(Operations!E58), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IF(Operations!F58="", "", IF(COUNTIF(Operations!F58:'Operations'!F153, Operations!F58)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E62" t="str">
+        <f>IF(ISBLANK(Operations!F58), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(Operations!K58="", "MISSING VALUE", IF(Operations!K58="Certified", "Valid", IF(OR(Operations!K58="Surrendered",Operations!K58="Suspended", Operations!K58="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J62" t="str">
+        <f>IF(Operations!AC58="", "MISSING VALUE", IF(Operations!AC58="Certified", "Valid", IF(OR(Operations!AC58="Surrendered", Operations!AC58="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M62" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE58),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE58)),
+ISNUMBER(SEARCH("tea", Operations!AE58)),
+ISNUMBER(SEARCH("coffee", Operations!AE58)),
+ISNUMBER(SEARCH("kombucha", Operations!AE58)),
+ISNUMBER(SEARCH("juice", Operations!AE58))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A63" t="str">
+        <f>(IF(Operations!E59="","",IF(COUNTIF(Operations!E59:E154,Operations!E59)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IF(ISBLANK(Operations!E59), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(Operations!F59="", "", IF(COUNTIF(Operations!F59:'Operations'!F154, Operations!F59)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(ISBLANK(Operations!F59), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(Operations!K59="", "MISSING VALUE", IF(Operations!K59="Certified", "Valid", IF(OR(Operations!K59="Surrendered",Operations!K59="Suspended", Operations!K59="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J63" t="str">
+        <f>IF(Operations!AC59="", "MISSING VALUE", IF(Operations!AC59="Certified", "Valid", IF(OR(Operations!AC59="Surrendered", Operations!AC59="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M63" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE59),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE59)),
+ISNUMBER(SEARCH("tea", Operations!AE59)),
+ISNUMBER(SEARCH("coffee", Operations!AE59)),
+ISNUMBER(SEARCH("kombucha", Operations!AE59)),
+ISNUMBER(SEARCH("juice", Operations!AE59))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A64" t="str">
+        <f>(IF(Operations!E60="","",IF(COUNTIF(Operations!E60:E155,Operations!E60)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IF(ISBLANK(Operations!E60), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(Operations!F60="", "", IF(COUNTIF(Operations!F60:'Operations'!F155, Operations!F60)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(ISBLANK(Operations!F60), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(Operations!K60="", "MISSING VALUE", IF(Operations!K60="Certified", "Valid", IF(OR(Operations!K60="Surrendered",Operations!K60="Suspended", Operations!K60="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(Operations!AC60="", "MISSING VALUE", IF(Operations!AC60="Certified", "Valid", IF(OR(Operations!AC60="Surrendered", Operations!AC60="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M64" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE60),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE60)),
+ISNUMBER(SEARCH("tea", Operations!AE60)),
+ISNUMBER(SEARCH("coffee", Operations!AE60)),
+ISNUMBER(SEARCH("kombucha", Operations!AE60)),
+ISNUMBER(SEARCH("juice", Operations!AE60))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65" t="str">
+        <f>(IF(Operations!E61="","",IF(COUNTIF(Operations!E61:E156,Operations!E61)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IF(ISBLANK(Operations!E61), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IF(Operations!F61="", "", IF(COUNTIF(Operations!F61:'Operations'!F156, Operations!F61)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E65" t="str">
+        <f>IF(ISBLANK(Operations!F61), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(Operations!K61="", "MISSING VALUE", IF(Operations!K61="Certified", "Valid", IF(OR(Operations!K61="Surrendered",Operations!K61="Suspended", Operations!K61="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(Operations!AC61="", "MISSING VALUE", IF(Operations!AC61="Certified", "Valid", IF(OR(Operations!AC61="Surrendered", Operations!AC61="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M65" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE61),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE61)),
+ISNUMBER(SEARCH("tea", Operations!AE61)),
+ISNUMBER(SEARCH("coffee", Operations!AE61)),
+ISNUMBER(SEARCH("kombucha", Operations!AE61)),
+ISNUMBER(SEARCH("juice", Operations!AE61))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66" t="str">
+        <f>(IF(Operations!E62="","",IF(COUNTIF(Operations!E62:E157,Operations!E62)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IF(ISBLANK(Operations!E62), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IF(Operations!F62="", "", IF(COUNTIF(Operations!F62:'Operations'!F157, Operations!F62)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E66" t="str">
+        <f>IF(ISBLANK(Operations!F62), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(Operations!K62="", "MISSING VALUE", IF(Operations!K62="Certified", "Valid", IF(OR(Operations!K62="Surrendered",Operations!K62="Suspended", Operations!K62="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J66" t="str">
+        <f>IF(Operations!AC62="", "MISSING VALUE", IF(Operations!AC62="Certified", "Valid", IF(OR(Operations!AC62="Surrendered", Operations!AC62="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M66" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE62),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE62)),
+ISNUMBER(SEARCH("tea", Operations!AE62)),
+ISNUMBER(SEARCH("coffee", Operations!AE62)),
+ISNUMBER(SEARCH("kombucha", Operations!AE62)),
+ISNUMBER(SEARCH("juice", Operations!AE62))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" t="str">
+        <f>(IF(Operations!E63="","",IF(COUNTIF(Operations!E63:E158,Operations!E63)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IF(ISBLANK(Operations!E63), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(Operations!F63="", "", IF(COUNTIF(Operations!F63:'Operations'!F158, Operations!F63)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(ISBLANK(Operations!F63), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(Operations!K63="", "MISSING VALUE", IF(Operations!K63="Certified", "Valid", IF(OR(Operations!K63="Surrendered",Operations!K63="Suspended", Operations!K63="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J67" t="str">
+        <f>IF(Operations!AC63="", "MISSING VALUE", IF(Operations!AC63="Certified", "Valid", IF(OR(Operations!AC63="Surrendered", Operations!AC63="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M67" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE63),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE63)),
+ISNUMBER(SEARCH("tea", Operations!AE63)),
+ISNUMBER(SEARCH("coffee", Operations!AE63)),
+ISNUMBER(SEARCH("kombucha", Operations!AE63)),
+ISNUMBER(SEARCH("juice", Operations!AE63))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" t="str">
+        <f>(IF(Operations!E64="","",IF(COUNTIF(Operations!E64:E159,Operations!E64)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IF(ISBLANK(Operations!E64), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IF(Operations!F64="", "", IF(COUNTIF(Operations!F64:'Operations'!F159, Operations!F64)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(ISBLANK(Operations!F64), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(Operations!K64="", "MISSING VALUE", IF(Operations!K64="Certified", "Valid", IF(OR(Operations!K64="Surrendered",Operations!K64="Suspended", Operations!K64="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(Operations!AC64="", "MISSING VALUE", IF(Operations!AC64="Certified", "Valid", IF(OR(Operations!AC64="Surrendered", Operations!AC64="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M68" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE64),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE64)),
+ISNUMBER(SEARCH("tea", Operations!AE64)),
+ISNUMBER(SEARCH("coffee", Operations!AE64)),
+ISNUMBER(SEARCH("kombucha", Operations!AE64)),
+ISNUMBER(SEARCH("juice", Operations!AE64))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" t="str">
+        <f>(IF(Operations!E65="","",IF(COUNTIF(Operations!E65:E160,Operations!E65)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IF(ISBLANK(Operations!E65), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IF(Operations!F65="", "", IF(COUNTIF(Operations!F65:'Operations'!F160, Operations!F65)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(ISBLANK(Operations!F65), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G69" t="str">
+        <f>IF(Operations!K65="", "MISSING VALUE", IF(Operations!K65="Certified", "Valid", IF(OR(Operations!K65="Surrendered",Operations!K65="Suspended", Operations!K65="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(Operations!AC65="", "MISSING VALUE", IF(Operations!AC65="Certified", "Valid", IF(OR(Operations!AC65="Surrendered", Operations!AC65="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M69" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE65),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE65)),
+ISNUMBER(SEARCH("tea", Operations!AE65)),
+ISNUMBER(SEARCH("coffee", Operations!AE65)),
+ISNUMBER(SEARCH("kombucha", Operations!AE65)),
+ISNUMBER(SEARCH("juice", Operations!AE65))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" t="str">
+        <f>(IF(Operations!E66="","",IF(COUNTIF(Operations!E66:E161,Operations!E66)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IF(ISBLANK(Operations!E66), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IF(Operations!F66="", "", IF(COUNTIF(Operations!F66:'Operations'!F161, Operations!F66)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(ISBLANK(Operations!F66), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G70" t="str">
+        <f>IF(Operations!K66="", "MISSING VALUE", IF(Operations!K66="Certified", "Valid", IF(OR(Operations!K66="Surrendered",Operations!K66="Suspended", Operations!K66="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(Operations!AC66="", "MISSING VALUE", IF(Operations!AC66="Certified", "Valid", IF(OR(Operations!AC66="Surrendered", Operations!AC66="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M70" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE66),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE66)),
+ISNUMBER(SEARCH("tea", Operations!AE66)),
+ISNUMBER(SEARCH("coffee", Operations!AE66)),
+ISNUMBER(SEARCH("kombucha", Operations!AE66)),
+ISNUMBER(SEARCH("juice", Operations!AE66))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71" t="str">
+        <f>(IF(Operations!E67="","",IF(COUNTIF(Operations!E67:E162,Operations!E67)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IF(ISBLANK(Operations!E67), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IF(Operations!F67="", "", IF(COUNTIF(Operations!F67:'Operations'!F162, Operations!F67)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(ISBLANK(Operations!F67), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G71" t="str">
+        <f>IF(Operations!K67="", "MISSING VALUE", IF(Operations!K67="Certified", "Valid", IF(OR(Operations!K67="Surrendered",Operations!K67="Suspended", Operations!K67="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J71" t="str">
+        <f>IF(Operations!AC67="", "MISSING VALUE", IF(Operations!AC67="Certified", "Valid", IF(OR(Operations!AC67="Surrendered", Operations!AC67="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M71" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE67),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE67)),
+ISNUMBER(SEARCH("tea", Operations!AE67)),
+ISNUMBER(SEARCH("coffee", Operations!AE67)),
+ISNUMBER(SEARCH("kombucha", Operations!AE67)),
+ISNUMBER(SEARCH("juice", Operations!AE67))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72" t="str">
+        <f>(IF(Operations!E68="","",IF(COUNTIF(Operations!E68:E163,Operations!E68)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IF(ISBLANK(Operations!E68), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IF(Operations!F68="", "", IF(COUNTIF(Operations!F68:'Operations'!F163, Operations!F68)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(ISBLANK(Operations!F68), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G72" t="str">
+        <f>IF(Operations!K68="", "MISSING VALUE", IF(Operations!K68="Certified", "Valid", IF(OR(Operations!K68="Surrendered",Operations!K68="Suspended", Operations!K68="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J72" t="str">
+        <f>IF(Operations!AC68="", "MISSING VALUE", IF(Operations!AC68="Certified", "Valid", IF(OR(Operations!AC68="Surrendered", Operations!AC68="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M72" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE68),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE68)),
+ISNUMBER(SEARCH("tea", Operations!AE68)),
+ISNUMBER(SEARCH("coffee", Operations!AE68)),
+ISNUMBER(SEARCH("kombucha", Operations!AE68)),
+ISNUMBER(SEARCH("juice", Operations!AE68))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" t="str">
+        <f>(IF(Operations!E69="","",IF(COUNTIF(Operations!E69:E164,Operations!E69)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IF(ISBLANK(Operations!E69), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IF(Operations!F69="", "", IF(COUNTIF(Operations!F69:'Operations'!F164, Operations!F69)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E73" t="str">
+        <f>IF(ISBLANK(Operations!F69), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G73" t="str">
+        <f>IF(Operations!K69="", "MISSING VALUE", IF(Operations!K69="Certified", "Valid", IF(OR(Operations!K69="Surrendered",Operations!K69="Suspended", Operations!K69="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(Operations!AC69="", "MISSING VALUE", IF(Operations!AC69="Certified", "Valid", IF(OR(Operations!AC69="Surrendered", Operations!AC69="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M73" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE69),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE69)),
+ISNUMBER(SEARCH("tea", Operations!AE69)),
+ISNUMBER(SEARCH("coffee", Operations!AE69)),
+ISNUMBER(SEARCH("kombucha", Operations!AE69)),
+ISNUMBER(SEARCH("juice", Operations!AE69))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74" t="str">
+        <f>(IF(Operations!E70="","",IF(COUNTIF(Operations!E70:E165,Operations!E70)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IF(ISBLANK(Operations!E70), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IF(Operations!F70="", "", IF(COUNTIF(Operations!F70:'Operations'!F165, Operations!F70)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E74" t="str">
+        <f>IF(ISBLANK(Operations!F70), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G74" t="str">
+        <f>IF(Operations!K70="", "MISSING VALUE", IF(Operations!K70="Certified", "Valid", IF(OR(Operations!K70="Surrendered",Operations!K70="Suspended", Operations!K70="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(Operations!AC70="", "MISSING VALUE", IF(Operations!AC70="Certified", "Valid", IF(OR(Operations!AC70="Surrendered", Operations!AC70="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M74" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE70),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE70)),
+ISNUMBER(SEARCH("tea", Operations!AE70)),
+ISNUMBER(SEARCH("coffee", Operations!AE70)),
+ISNUMBER(SEARCH("kombucha", Operations!AE70)),
+ISNUMBER(SEARCH("juice", Operations!AE70))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" t="str">
+        <f>(IF(Operations!E71="","",IF(COUNTIF(Operations!E71:E166,Operations!E71)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IF(ISBLANK(Operations!E71), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IF(Operations!F71="", "", IF(COUNTIF(Operations!F71:'Operations'!F166, Operations!F71)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E75" t="str">
+        <f>IF(ISBLANK(Operations!F71), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G75" t="str">
+        <f>IF(Operations!K71="", "MISSING VALUE", IF(Operations!K71="Certified", "Valid", IF(OR(Operations!K71="Surrendered",Operations!K71="Suspended", Operations!K71="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(Operations!AC71="", "MISSING VALUE", IF(Operations!AC71="Certified", "Valid", IF(OR(Operations!AC71="Surrendered", Operations!AC71="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M75" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE71),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE71)),
+ISNUMBER(SEARCH("tea", Operations!AE71)),
+ISNUMBER(SEARCH("coffee", Operations!AE71)),
+ISNUMBER(SEARCH("kombucha", Operations!AE71)),
+ISNUMBER(SEARCH("juice", Operations!AE71))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" t="str">
+        <f>(IF(Operations!E72="","",IF(COUNTIF(Operations!E72:E167,Operations!E72)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IF(ISBLANK(Operations!E72), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D76" t="str">
+        <f>IF(Operations!F72="", "", IF(COUNTIF(Operations!F72:'Operations'!F167, Operations!F72)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E76" t="str">
+        <f>IF(ISBLANK(Operations!F72), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G76" t="str">
+        <f>IF(Operations!K72="", "MISSING VALUE", IF(Operations!K72="Certified", "Valid", IF(OR(Operations!K72="Surrendered",Operations!K72="Suspended", Operations!K72="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(Operations!AC72="", "MISSING VALUE", IF(Operations!AC72="Certified", "Valid", IF(OR(Operations!AC72="Surrendered", Operations!AC72="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M76" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE72),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE72)),
+ISNUMBER(SEARCH("tea", Operations!AE72)),
+ISNUMBER(SEARCH("coffee", Operations!AE72)),
+ISNUMBER(SEARCH("kombucha", Operations!AE72)),
+ISNUMBER(SEARCH("juice", Operations!AE72))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77" t="str">
+        <f>(IF(Operations!E73="","",IF(COUNTIF(Operations!E73:E168,Operations!E73)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B77" t="str">
+        <f>IF(ISBLANK(Operations!E73), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D77" t="str">
+        <f>IF(Operations!F73="", "", IF(COUNTIF(Operations!F73:'Operations'!F168, Operations!F73)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E77" t="str">
+        <f>IF(ISBLANK(Operations!F73), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G77" t="str">
+        <f>IF(Operations!K73="", "MISSING VALUE", IF(Operations!K73="Certified", "Valid", IF(OR(Operations!K73="Surrendered",Operations!K73="Suspended", Operations!K73="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J77" t="str">
+        <f>IF(Operations!AC73="", "MISSING VALUE", IF(Operations!AC73="Certified", "Valid", IF(OR(Operations!AC73="Surrendered", Operations!AC73="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M77" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE73),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE73)),
+ISNUMBER(SEARCH("tea", Operations!AE73)),
+ISNUMBER(SEARCH("coffee", Operations!AE73)),
+ISNUMBER(SEARCH("kombucha", Operations!AE73)),
+ISNUMBER(SEARCH("juice", Operations!AE73))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78" t="str">
+        <f>(IF(Operations!E74="","",IF(COUNTIF(Operations!E74:E169,Operations!E74)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IF(ISBLANK(Operations!E74), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D78" t="str">
+        <f>IF(Operations!F74="", "", IF(COUNTIF(Operations!F74:'Operations'!F169, Operations!F74)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(ISBLANK(Operations!F74), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G78" t="str">
+        <f>IF(Operations!K74="", "MISSING VALUE", IF(Operations!K74="Certified", "Valid", IF(OR(Operations!K74="Surrendered",Operations!K74="Suspended", Operations!K74="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(Operations!AC74="", "MISSING VALUE", IF(Operations!AC74="Certified", "Valid", IF(OR(Operations!AC74="Surrendered", Operations!AC74="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M78" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE74),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE74)),
+ISNUMBER(SEARCH("tea", Operations!AE74)),
+ISNUMBER(SEARCH("coffee", Operations!AE74)),
+ISNUMBER(SEARCH("kombucha", Operations!AE74)),
+ISNUMBER(SEARCH("juice", Operations!AE74))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" t="str">
+        <f>(IF(Operations!E75="","",IF(COUNTIF(Operations!E75:E170,Operations!E75)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IF(ISBLANK(Operations!E75), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D79" t="str">
+        <f>IF(Operations!F75="", "", IF(COUNTIF(Operations!F75:'Operations'!F170, Operations!F75)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E79" t="str">
+        <f>IF(ISBLANK(Operations!F75), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G79" t="str">
+        <f>IF(Operations!K75="", "MISSING VALUE", IF(Operations!K75="Certified", "Valid", IF(OR(Operations!K75="Surrendered",Operations!K75="Suspended", Operations!K75="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(Operations!AC75="", "MISSING VALUE", IF(Operations!AC75="Certified", "Valid", IF(OR(Operations!AC75="Surrendered", Operations!AC75="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M79" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE75),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE75)),
+ISNUMBER(SEARCH("tea", Operations!AE75)),
+ISNUMBER(SEARCH("coffee", Operations!AE75)),
+ISNUMBER(SEARCH("kombucha", Operations!AE75)),
+ISNUMBER(SEARCH("juice", Operations!AE75))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" t="str">
+        <f>(IF(Operations!E76="","",IF(COUNTIF(Operations!E76:E171,Operations!E76)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IF(ISBLANK(Operations!E76), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D80" t="str">
+        <f>IF(Operations!F76="", "", IF(COUNTIF(Operations!F76:'Operations'!F171, Operations!F76)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E80" t="str">
+        <f>IF(ISBLANK(Operations!F76), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G80" t="str">
+        <f>IF(Operations!K76="", "MISSING VALUE", IF(Operations!K76="Certified", "Valid", IF(OR(Operations!K76="Surrendered",Operations!K76="Suspended", Operations!K76="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(Operations!AC76="", "MISSING VALUE", IF(Operations!AC76="Certified", "Valid", IF(OR(Operations!AC76="Surrendered", Operations!AC76="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M80" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE76),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE76)),
+ISNUMBER(SEARCH("tea", Operations!AE76)),
+ISNUMBER(SEARCH("coffee", Operations!AE76)),
+ISNUMBER(SEARCH("kombucha", Operations!AE76)),
+ISNUMBER(SEARCH("juice", Operations!AE76))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81" t="str">
+        <f>(IF(Operations!E77="","",IF(COUNTIF(Operations!E77:E172,Operations!E77)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IF(ISBLANK(Operations!E77), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D81" t="str">
+        <f>IF(Operations!F77="", "", IF(COUNTIF(Operations!F77:'Operations'!F172, Operations!F77)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E81" t="str">
+        <f>IF(ISBLANK(Operations!F77), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G81" t="str">
+        <f>IF(Operations!K77="", "MISSING VALUE", IF(Operations!K77="Certified", "Valid", IF(OR(Operations!K77="Surrendered",Operations!K77="Suspended", Operations!K77="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J81" t="str">
+        <f>IF(Operations!AC77="", "MISSING VALUE", IF(Operations!AC77="Certified", "Valid", IF(OR(Operations!AC77="Surrendered", Operations!AC77="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M81" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE77),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE77)),
+ISNUMBER(SEARCH("tea", Operations!AE77)),
+ISNUMBER(SEARCH("coffee", Operations!AE77)),
+ISNUMBER(SEARCH("kombucha", Operations!AE77)),
+ISNUMBER(SEARCH("juice", Operations!AE77))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" t="str">
+        <f>(IF(Operations!E78="","",IF(COUNTIF(Operations!E78:E173,Operations!E78)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IF(ISBLANK(Operations!E78), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D82" t="str">
+        <f>IF(Operations!F78="", "", IF(COUNTIF(Operations!F78:'Operations'!F173, Operations!F78)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E82" t="str">
+        <f>IF(ISBLANK(Operations!F78), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G82" t="str">
+        <f>IF(Operations!K78="", "MISSING VALUE", IF(Operations!K78="Certified", "Valid", IF(OR(Operations!K78="Surrendered",Operations!K78="Suspended", Operations!K78="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J82" t="str">
+        <f>IF(Operations!AC78="", "MISSING VALUE", IF(Operations!AC78="Certified", "Valid", IF(OR(Operations!AC78="Surrendered", Operations!AC78="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M82" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE78),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE78)),
+ISNUMBER(SEARCH("tea", Operations!AE78)),
+ISNUMBER(SEARCH("coffee", Operations!AE78)),
+ISNUMBER(SEARCH("kombucha", Operations!AE78)),
+ISNUMBER(SEARCH("juice", Operations!AE78))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83" t="str">
+        <f>(IF(Operations!E79="","",IF(COUNTIF(Operations!E79:E174,Operations!E79)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IF(ISBLANK(Operations!E79), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(Operations!F79="", "", IF(COUNTIF(Operations!F79:'Operations'!F174, Operations!F79)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E83" t="str">
+        <f>IF(ISBLANK(Operations!F79), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G83" t="str">
+        <f>IF(Operations!K79="", "MISSING VALUE", IF(Operations!K79="Certified", "Valid", IF(OR(Operations!K79="Surrendered",Operations!K79="Suspended", Operations!K79="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J83" t="str">
+        <f>IF(Operations!AC79="", "MISSING VALUE", IF(Operations!AC79="Certified", "Valid", IF(OR(Operations!AC79="Surrendered", Operations!AC79="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M83" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE79),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE79)),
+ISNUMBER(SEARCH("tea", Operations!AE79)),
+ISNUMBER(SEARCH("coffee", Operations!AE79)),
+ISNUMBER(SEARCH("kombucha", Operations!AE79)),
+ISNUMBER(SEARCH("juice", Operations!AE79))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A84" t="str">
+        <f>(IF(Operations!E80="","",IF(COUNTIF(Operations!E80:E175,Operations!E80)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IF(ISBLANK(Operations!E80), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D84" t="str">
+        <f>IF(Operations!F80="", "", IF(COUNTIF(Operations!F80:'Operations'!F175, Operations!F80)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E84" t="str">
+        <f>IF(ISBLANK(Operations!F80), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G84" t="str">
+        <f>IF(Operations!K80="", "MISSING VALUE", IF(Operations!K80="Certified", "Valid", IF(OR(Operations!K80="Surrendered",Operations!K80="Suspended", Operations!K80="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J84" t="str">
+        <f>IF(Operations!AC80="", "MISSING VALUE", IF(Operations!AC80="Certified", "Valid", IF(OR(Operations!AC80="Surrendered", Operations!AC80="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M84" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE80),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE80)),
+ISNUMBER(SEARCH("tea", Operations!AE80)),
+ISNUMBER(SEARCH("coffee", Operations!AE80)),
+ISNUMBER(SEARCH("kombucha", Operations!AE80)),
+ISNUMBER(SEARCH("juice", Operations!AE80))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A85" t="str">
+        <f>(IF(Operations!E81="","",IF(COUNTIF(Operations!E81:E176,Operations!E81)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IF(ISBLANK(Operations!E81), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D85" t="str">
+        <f>IF(Operations!F81="", "", IF(COUNTIF(Operations!F81:'Operations'!F176, Operations!F81)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E85" t="str">
+        <f>IF(ISBLANK(Operations!F81), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G85" t="str">
+        <f>IF(Operations!K81="", "MISSING VALUE", IF(Operations!K81="Certified", "Valid", IF(OR(Operations!K81="Surrendered",Operations!K81="Suspended", Operations!K81="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J85" t="str">
+        <f>IF(Operations!AC81="", "MISSING VALUE", IF(Operations!AC81="Certified", "Valid", IF(OR(Operations!AC81="Surrendered", Operations!AC81="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M85" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE81),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE81)),
+ISNUMBER(SEARCH("tea", Operations!AE81)),
+ISNUMBER(SEARCH("coffee", Operations!AE81)),
+ISNUMBER(SEARCH("kombucha", Operations!AE81)),
+ISNUMBER(SEARCH("juice", Operations!AE81))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A86" t="str">
+        <f>(IF(Operations!E82="","",IF(COUNTIF(Operations!E82:E177,Operations!E82)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IF(ISBLANK(Operations!E82), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(Operations!F82="", "", IF(COUNTIF(Operations!F82:'Operations'!F177, Operations!F82)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E86" t="str">
+        <f>IF(ISBLANK(Operations!F82), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G86" t="str">
+        <f>IF(Operations!K82="", "MISSING VALUE", IF(Operations!K82="Certified", "Valid", IF(OR(Operations!K82="Surrendered",Operations!K82="Suspended", Operations!K82="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J86" t="str">
+        <f>IF(Operations!AC82="", "MISSING VALUE", IF(Operations!AC82="Certified", "Valid", IF(OR(Operations!AC82="Surrendered", Operations!AC82="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M86" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE82),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE82)),
+ISNUMBER(SEARCH("tea", Operations!AE82)),
+ISNUMBER(SEARCH("coffee", Operations!AE82)),
+ISNUMBER(SEARCH("kombucha", Operations!AE82)),
+ISNUMBER(SEARCH("juice", Operations!AE82))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A87" t="str">
+        <f>(IF(Operations!E83="","",IF(COUNTIF(Operations!E83:E178,Operations!E83)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(ISBLANK(Operations!E83), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(Operations!F83="", "", IF(COUNTIF(Operations!F83:'Operations'!F178, Operations!F83)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E87" t="str">
+        <f>IF(ISBLANK(Operations!F83), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G87" t="str">
+        <f>IF(Operations!K83="", "MISSING VALUE", IF(Operations!K83="Certified", "Valid", IF(OR(Operations!K83="Surrendered",Operations!K83="Suspended", Operations!K83="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J87" t="str">
+        <f>IF(Operations!AC83="", "MISSING VALUE", IF(Operations!AC83="Certified", "Valid", IF(OR(Operations!AC83="Surrendered", Operations!AC83="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M87" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE83),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE83)),
+ISNUMBER(SEARCH("tea", Operations!AE83)),
+ISNUMBER(SEARCH("coffee", Operations!AE83)),
+ISNUMBER(SEARCH("kombucha", Operations!AE83)),
+ISNUMBER(SEARCH("juice", Operations!AE83))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A88" t="str">
+        <f>(IF(Operations!E84="","",IF(COUNTIF(Operations!E84:E179,Operations!E84)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IF(ISBLANK(Operations!E84), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D88" t="str">
+        <f>IF(Operations!F84="", "", IF(COUNTIF(Operations!F84:'Operations'!F179, Operations!F84)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E88" t="str">
+        <f>IF(ISBLANK(Operations!F84), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G88" t="str">
+        <f>IF(Operations!K84="", "MISSING VALUE", IF(Operations!K84="Certified", "Valid", IF(OR(Operations!K84="Surrendered",Operations!K84="Suspended", Operations!K84="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J88" t="str">
+        <f>IF(Operations!AC84="", "MISSING VALUE", IF(Operations!AC84="Certified", "Valid", IF(OR(Operations!AC84="Surrendered", Operations!AC84="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M88" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE84),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE84)),
+ISNUMBER(SEARCH("tea", Operations!AE84)),
+ISNUMBER(SEARCH("coffee", Operations!AE84)),
+ISNUMBER(SEARCH("kombucha", Operations!AE84)),
+ISNUMBER(SEARCH("juice", Operations!AE84))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89" t="str">
+        <f>(IF(Operations!E85="","",IF(COUNTIF(Operations!E85:E180,Operations!E85)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IF(ISBLANK(Operations!E85), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D89" t="str">
+        <f>IF(Operations!F85="", "", IF(COUNTIF(Operations!F85:'Operations'!F180, Operations!F85)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E89" t="str">
+        <f>IF(ISBLANK(Operations!F85), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G89" t="str">
+        <f>IF(Operations!K85="", "MISSING VALUE", IF(Operations!K85="Certified", "Valid", IF(OR(Operations!K85="Surrendered",Operations!K85="Suspended", Operations!K85="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J89" t="str">
+        <f>IF(Operations!AC85="", "MISSING VALUE", IF(Operations!AC85="Certified", "Valid", IF(OR(Operations!AC85="Surrendered", Operations!AC85="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M89" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE85),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE85)),
+ISNUMBER(SEARCH("tea", Operations!AE85)),
+ISNUMBER(SEARCH("coffee", Operations!AE85)),
+ISNUMBER(SEARCH("kombucha", Operations!AE85)),
+ISNUMBER(SEARCH("juice", Operations!AE85))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A90" t="str">
+        <f>(IF(Operations!E86="","",IF(COUNTIF(Operations!E86:E181,Operations!E86)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IF(ISBLANK(Operations!E86), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D90" t="str">
+        <f>IF(Operations!F86="", "", IF(COUNTIF(Operations!F86:'Operations'!F181, Operations!F86)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E90" t="str">
+        <f>IF(ISBLANK(Operations!F86), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G90" t="str">
+        <f>IF(Operations!K86="", "MISSING VALUE", IF(Operations!K86="Certified", "Valid", IF(OR(Operations!K86="Surrendered",Operations!K86="Suspended", Operations!K86="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J90" t="str">
+        <f>IF(Operations!AC86="", "MISSING VALUE", IF(Operations!AC86="Certified", "Valid", IF(OR(Operations!AC86="Surrendered", Operations!AC86="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M90" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE86),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE86)),
+ISNUMBER(SEARCH("tea", Operations!AE86)),
+ISNUMBER(SEARCH("coffee", Operations!AE86)),
+ISNUMBER(SEARCH("kombucha", Operations!AE86)),
+ISNUMBER(SEARCH("juice", Operations!AE86))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A91" t="str">
+        <f>(IF(Operations!E87="","",IF(COUNTIF(Operations!E87:E182,Operations!E87)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IF(ISBLANK(Operations!E87), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D91" t="str">
+        <f>IF(Operations!F87="", "", IF(COUNTIF(Operations!F87:'Operations'!F182, Operations!F87)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E91" t="str">
+        <f>IF(ISBLANK(Operations!F87), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G91" t="str">
+        <f>IF(Operations!K87="", "MISSING VALUE", IF(Operations!K87="Certified", "Valid", IF(OR(Operations!K87="Surrendered",Operations!K87="Suspended", Operations!K87="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J91" t="str">
+        <f>IF(Operations!AC87="", "MISSING VALUE", IF(Operations!AC87="Certified", "Valid", IF(OR(Operations!AC87="Surrendered", Operations!AC87="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M91" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE87),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE87)),
+ISNUMBER(SEARCH("tea", Operations!AE87)),
+ISNUMBER(SEARCH("coffee", Operations!AE87)),
+ISNUMBER(SEARCH("kombucha", Operations!AE87)),
+ISNUMBER(SEARCH("juice", Operations!AE87))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92" t="str">
+        <f>(IF(Operations!E88="","",IF(COUNTIF(Operations!E88:E183,Operations!E88)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IF(ISBLANK(Operations!E88), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D92" t="str">
+        <f>IF(Operations!F88="", "", IF(COUNTIF(Operations!F88:'Operations'!F183, Operations!F88)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E92" t="str">
+        <f>IF(ISBLANK(Operations!F88), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G92" t="str">
+        <f>IF(Operations!K88="", "MISSING VALUE", IF(Operations!K88="Certified", "Valid", IF(OR(Operations!K88="Surrendered",Operations!K88="Suspended", Operations!K88="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J92" t="str">
+        <f>IF(Operations!AC88="", "MISSING VALUE", IF(Operations!AC88="Certified", "Valid", IF(OR(Operations!AC88="Surrendered", Operations!AC88="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M92" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE88),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE88)),
+ISNUMBER(SEARCH("tea", Operations!AE88)),
+ISNUMBER(SEARCH("coffee", Operations!AE88)),
+ISNUMBER(SEARCH("kombucha", Operations!AE88)),
+ISNUMBER(SEARCH("juice", Operations!AE88))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A93" t="str">
+        <f>(IF(Operations!E89="","",IF(COUNTIF(Operations!E89:E184,Operations!E89)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IF(ISBLANK(Operations!E89), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D93" t="str">
+        <f>IF(Operations!F89="", "", IF(COUNTIF(Operations!F89:'Operations'!F184, Operations!F89)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E93" t="str">
+        <f>IF(ISBLANK(Operations!F89), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G93" t="str">
+        <f>IF(Operations!K89="", "MISSING VALUE", IF(Operations!K89="Certified", "Valid", IF(OR(Operations!K89="Surrendered",Operations!K89="Suspended", Operations!K89="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J93" t="str">
+        <f>IF(Operations!AC89="", "MISSING VALUE", IF(Operations!AC89="Certified", "Valid", IF(OR(Operations!AC89="Surrendered", Operations!AC89="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M93" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE89),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE89)),
+ISNUMBER(SEARCH("tea", Operations!AE89)),
+ISNUMBER(SEARCH("coffee", Operations!AE89)),
+ISNUMBER(SEARCH("kombucha", Operations!AE89)),
+ISNUMBER(SEARCH("juice", Operations!AE89))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A94" t="str">
+        <f>(IF(Operations!E90="","",IF(COUNTIF(Operations!E90:E185,Operations!E90)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IF(ISBLANK(Operations!E90), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D94" t="str">
+        <f>IF(Operations!F90="", "", IF(COUNTIF(Operations!F90:'Operations'!F185, Operations!F90)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E94" t="str">
+        <f>IF(ISBLANK(Operations!F90), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G94" t="str">
+        <f>IF(Operations!K90="", "MISSING VALUE", IF(Operations!K90="Certified", "Valid", IF(OR(Operations!K90="Surrendered",Operations!K90="Suspended", Operations!K90="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J94" t="str">
+        <f>IF(Operations!AC90="", "MISSING VALUE", IF(Operations!AC90="Certified", "Valid", IF(OR(Operations!AC90="Surrendered", Operations!AC90="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M94" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE90),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE90)),
+ISNUMBER(SEARCH("tea", Operations!AE90)),
+ISNUMBER(SEARCH("coffee", Operations!AE90)),
+ISNUMBER(SEARCH("kombucha", Operations!AE90)),
+ISNUMBER(SEARCH("juice", Operations!AE90))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A95" t="str">
+        <f>(IF(Operations!E91="","",IF(COUNTIF(Operations!E91:E186,Operations!E91)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IF(ISBLANK(Operations!E91), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D95" t="str">
+        <f>IF(Operations!F91="", "", IF(COUNTIF(Operations!F91:'Operations'!F186, Operations!F91)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E95" t="str">
+        <f>IF(ISBLANK(Operations!F91), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G95" t="str">
+        <f>IF(Operations!K91="", "MISSING VALUE", IF(Operations!K91="Certified", "Valid", IF(OR(Operations!K91="Surrendered",Operations!K91="Suspended", Operations!K91="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J95" t="str">
+        <f>IF(Operations!AC91="", "MISSING VALUE", IF(Operations!AC91="Certified", "Valid", IF(OR(Operations!AC91="Surrendered", Operations!AC91="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M95" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE91),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE91)),
+ISNUMBER(SEARCH("tea", Operations!AE91)),
+ISNUMBER(SEARCH("coffee", Operations!AE91)),
+ISNUMBER(SEARCH("kombucha", Operations!AE91)),
+ISNUMBER(SEARCH("juice", Operations!AE91))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A96" t="str">
+        <f>(IF(Operations!E92="","",IF(COUNTIF(Operations!E92:E187,Operations!E92)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IF(ISBLANK(Operations!E92), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D96" t="str">
+        <f>IF(Operations!F92="", "", IF(COUNTIF(Operations!F92:'Operations'!F187, Operations!F92)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E96" t="str">
+        <f>IF(ISBLANK(Operations!F92), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G96" t="str">
+        <f>IF(Operations!K92="", "MISSING VALUE", IF(Operations!K92="Certified", "Valid", IF(OR(Operations!K92="Surrendered",Operations!K92="Suspended", Operations!K92="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J96" t="str">
+        <f>IF(Operations!AC92="", "MISSING VALUE", IF(Operations!AC92="Certified", "Valid", IF(OR(Operations!AC92="Surrendered", Operations!AC92="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M96" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE92),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE92)),
+ISNUMBER(SEARCH("tea", Operations!AE92)),
+ISNUMBER(SEARCH("coffee", Operations!AE92)),
+ISNUMBER(SEARCH("kombucha", Operations!AE92)),
+ISNUMBER(SEARCH("juice", Operations!AE92))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A97" t="str">
+        <f>(IF(Operations!E93="","",IF(COUNTIF(Operations!E93:E188,Operations!E93)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IF(ISBLANK(Operations!E93), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(Operations!F93="", "", IF(COUNTIF(Operations!F93:'Operations'!F188, Operations!F93)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E97" t="str">
+        <f>IF(ISBLANK(Operations!F93), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(Operations!K93="", "MISSING VALUE", IF(Operations!K93="Certified", "Valid", IF(OR(Operations!K93="Surrendered",Operations!K93="Suspended", Operations!K93="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J97" t="str">
+        <f>IF(Operations!AC93="", "MISSING VALUE", IF(Operations!AC93="Certified", "Valid", IF(OR(Operations!AC93="Surrendered", Operations!AC93="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M97" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE93),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE93)),
+ISNUMBER(SEARCH("tea", Operations!AE93)),
+ISNUMBER(SEARCH("coffee", Operations!AE93)),
+ISNUMBER(SEARCH("kombucha", Operations!AE93)),
+ISNUMBER(SEARCH("juice", Operations!AE93))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98" t="str">
+        <f>(IF(Operations!E94="","",IF(COUNTIF(Operations!E94:E189,Operations!E94)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IF(ISBLANK(Operations!E94), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D98" t="str">
+        <f>IF(Operations!F94="", "", IF(COUNTIF(Operations!F94:'Operations'!F189, Operations!F94)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E98" t="str">
+        <f>IF(ISBLANK(Operations!F94), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G98" t="str">
+        <f>IF(Operations!K94="", "MISSING VALUE", IF(Operations!K94="Certified", "Valid", IF(OR(Operations!K94="Surrendered",Operations!K94="Suspended", Operations!K94="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J98" t="str">
+        <f>IF(Operations!AC94="", "MISSING VALUE", IF(Operations!AC94="Certified", "Valid", IF(OR(Operations!AC94="Surrendered", Operations!AC94="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M98" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE94),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE94)),
+ISNUMBER(SEARCH("tea", Operations!AE94)),
+ISNUMBER(SEARCH("coffee", Operations!AE94)),
+ISNUMBER(SEARCH("kombucha", Operations!AE94)),
+ISNUMBER(SEARCH("juice", Operations!AE94))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A99" t="str">
+        <f>(IF(Operations!E95="","",IF(COUNTIF(Operations!E95:E190,Operations!E95)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IF(ISBLANK(Operations!E95), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D99" t="str">
+        <f>IF(Operations!F95="", "", IF(COUNTIF(Operations!F95:'Operations'!F190, Operations!F95)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E99" t="str">
+        <f>IF(ISBLANK(Operations!F95), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G99" t="str">
+        <f>IF(Operations!K95="", "MISSING VALUE", IF(Operations!K95="Certified", "Valid", IF(OR(Operations!K95="Surrendered",Operations!K95="Suspended", Operations!K95="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J99" t="str">
+        <f>IF(Operations!AC95="", "MISSING VALUE", IF(Operations!AC95="Certified", "Valid", IF(OR(Operations!AC95="Surrendered", Operations!AC95="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M99" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE95),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE95)),
+ISNUMBER(SEARCH("tea", Operations!AE95)),
+ISNUMBER(SEARCH("coffee", Operations!AE95)),
+ISNUMBER(SEARCH("kombucha", Operations!AE95)),
+ISNUMBER(SEARCH("juice", Operations!AE95))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A100" t="str">
+        <f>(IF(Operations!E96="","",IF(COUNTIF(Operations!E96:E191,Operations!E96)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IF(ISBLANK(Operations!E96), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D100" t="str">
+        <f>IF(Operations!F96="", "", IF(COUNTIF(Operations!F96:'Operations'!F191, Operations!F96)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E100" t="str">
+        <f>IF(ISBLANK(Operations!F96), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G100" t="str">
+        <f>IF(Operations!K96="", "MISSING VALUE", IF(Operations!K96="Certified", "Valid", IF(OR(Operations!K96="Surrendered",Operations!K96="Suspended", Operations!K96="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J100" t="str">
+        <f>IF(Operations!AC96="", "MISSING VALUE", IF(Operations!AC96="Certified", "Valid", IF(OR(Operations!AC96="Surrendered", Operations!AC96="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M100" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE96),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE96)),
+ISNUMBER(SEARCH("tea", Operations!AE96)),
+ISNUMBER(SEARCH("coffee", Operations!AE96)),
+ISNUMBER(SEARCH("kombucha", Operations!AE96)),
+ISNUMBER(SEARCH("juice", Operations!AE96))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A101" t="str">
+        <f>(IF(Operations!E97="","",IF(COUNTIF(Operations!E97:E192,Operations!E97)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IF(ISBLANK(Operations!E97), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D101" t="str">
+        <f>IF(Operations!F97="", "", IF(COUNTIF(Operations!F97:'Operations'!F192, Operations!F97)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E101" t="str">
+        <f>IF(ISBLANK(Operations!F97), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G101" t="str">
+        <f>IF(Operations!K97="", "MISSING VALUE", IF(Operations!K97="Certified", "Valid", IF(OR(Operations!K97="Surrendered",Operations!K97="Suspended", Operations!K97="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J101" t="str">
+        <f>IF(Operations!AC97="", "MISSING VALUE", IF(Operations!AC97="Certified", "Valid", IF(OR(Operations!AC97="Surrendered", Operations!AC97="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M101" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE97),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE97)),
+ISNUMBER(SEARCH("tea", Operations!AE97)),
+ISNUMBER(SEARCH("coffee", Operations!AE97)),
+ISNUMBER(SEARCH("kombucha", Operations!AE97)),
+ISNUMBER(SEARCH("juice", Operations!AE97))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A102" t="str">
+        <f>(IF(Operations!E98="","",IF(COUNTIF(Operations!E98:E193,Operations!E98)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IF(ISBLANK(Operations!E98), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D102" t="str">
+        <f>IF(Operations!F98="", "", IF(COUNTIF(Operations!F98:'Operations'!F193, Operations!F98)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E102" t="str">
+        <f>IF(ISBLANK(Operations!F98), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G102" t="str">
+        <f>IF(Operations!K98="", "MISSING VALUE", IF(Operations!K98="Certified", "Valid", IF(OR(Operations!K98="Surrendered",Operations!K98="Suspended", Operations!K98="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J102" t="str">
+        <f>IF(Operations!AC98="", "MISSING VALUE", IF(Operations!AC98="Certified", "Valid", IF(OR(Operations!AC98="Surrendered", Operations!AC98="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M102" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE98),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE98)),
+ISNUMBER(SEARCH("tea", Operations!AE98)),
+ISNUMBER(SEARCH("coffee", Operations!AE98)),
+ISNUMBER(SEARCH("kombucha", Operations!AE98)),
+ISNUMBER(SEARCH("juice", Operations!AE98))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A103" t="str">
+        <f>(IF(Operations!E99="","",IF(COUNTIF(Operations!E99:E194,Operations!E99)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IF(ISBLANK(Operations!E99), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="D103" t="str">
+        <f>IF(Operations!F99="", "", IF(COUNTIF(Operations!F99:'Operations'!F194, Operations!F99)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v>No Duplicate</v>
+      </c>
+      <c r="E103" t="str">
+        <f>IF(ISBLANK(Operations!F99), "MISSING VALUE", "VALUE")</f>
+        <v>VALUE</v>
+      </c>
+      <c r="G103" t="str">
+        <f>IF(Operations!K99="", "MISSING VALUE", IF(Operations!K99="Certified", "Valid", IF(OR(Operations!K99="Surrendered",Operations!K99="Suspended", Operations!K99="Revoked"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="J103" t="str">
+        <f>IF(Operations!AC99="", "MISSING VALUE", IF(Operations!AC99="Certified", "Valid", IF(OR(Operations!AC99="Surrendered", Operations!AC99="Suspended"), "INVALID", "UNKNOWN")))</f>
+        <v>Valid</v>
+      </c>
+      <c r="M103" s="46" t="str">
+        <f>IF(ISBLANK(Operations!AE99),
+"Blank",
+IF(OR(
+ISNUMBER(SEARCH("beverages", Operations!AE99)),
+ISNUMBER(SEARCH("tea", Operations!AE99)),
+ISNUMBER(SEARCH("coffee", Operations!AE99)),
+ISNUMBER(SEARCH("kombucha", Operations!AE99)),
+ISNUMBER(SEARCH("juice", Operations!AE99))
+),
+"Organic beverage", "Not organic Beverage")
+)</f>
+        <v>Organic beverage</v>
+      </c>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A104" t="str">
+        <f>(IF(Operations!E100="","",IF(COUNTIF(Operations!E100:E195,Operations!E100)&gt;1,"Duplicate","No Duplicate")))</f>
+        <v/>
+      </c>
+      <c r="D104" t="str">
+        <f>IF(Operations!F100="", "", IF(COUNTIF(Operations!F100:'Operations'!F195, Operations!F100)&gt;1, "Duplicate", "No Duplicate"))</f>
+        <v/>
+      </c>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>